--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E781232-D9D3-4C31-A931-AC4FC368DDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4EE5B3-F355-4389-8EA4-F427621E70E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Parametros</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>QRDebin</t>
+  </si>
+  <si>
+    <t>QRDebin*</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"moneda":"840"}}</t>
+  </si>
+  <si>
+    <t>Debin QR en Dólares</t>
+  </si>
+  <si>
+    <t>NO EXISTE EL CBU VENDEDOR</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7102","descripcion": "NO EXISTE EL CBU VENDEDOR"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor": {"cuit": "27375575847","cbu": "0180000511000000952880","banco": "018","sucursal": "2879","terminal": "1"}}</t>
   </si>
 </sst>
 </file>
@@ -378,7 +396,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +404,7 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="88.28515625" customWidth="1"/>
-    <col min="4" max="4" width="158.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -419,17 +437,41 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4EE5B3-F355-4389-8EA4-F427621E70E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A51162-926E-4942-A8C3-960E1DB451EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
   <si>
     <t>Parametros</t>
   </si>
@@ -56,9 +56,6 @@
     <t>QRDebin*</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"moneda":"840"}}</t>
-  </si>
-  <si>
     <t>Debin QR en Dólares</t>
   </si>
   <si>
@@ -69,6 +66,339 @@
   </si>
   <si>
     <t>"operacion":{"vendedor": {"cuit": "27375575847","cbu": "0180000511000000952880","banco": "018","sucursal": "2879","terminal": "1"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": {"cbu": "0180000511000000952880","alias": ""},"cuit": "20000000141"}}</t>
+  </si>
+  <si>
+    <t>MONTO MAXIMO PERMITIDO</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7105","descripcion": "MONTO SUPERA VALOR MAXIMO/MINIMO PERMITIDO"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7106","descripcion": "EXPIRACION INCORRECTA"}}}</t>
+  </si>
+  <si>
+    <t>EXPIRACION MAXIMO INCORRECTA</t>
+  </si>
+  <si>
+    <t>EXPIRACION MINIMA INCORRECTA</t>
+  </si>
+  <si>
+    <t>NO ADHERIDO COMO VENDEDOR</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7107","descripcion": "NO ADHERIDO COMO VENDEDOR"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7112","descripcion": "ERROR TIPO DE CUENTA DEL COMPRADOR"}}}</t>
+  </si>
+  <si>
+    <t>ERROR TIPO DE CUENTA DEL COMPRADOR</t>
+  </si>
+  <si>
+    <t>MONTO MINIMO PERMITIDO</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor": {"cuit": "20000000583","cbu": "9985188000000000000611","banco": "998","sucursal": "5188","terminal": "","recurrencia": "false","prestacion": ""},"comprador": {"cuit": "20333048494","cuenta": {"cbu": "9983873500000000000406","alias": ""}},"detalle":{"moneda":"840"}}</t>
+  </si>
+  <si>
+    <t>MONEDA DEL VENDEDOR DIFERENTE A LA REQUERIDA</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7109","descripcion": "MONEDA DEL VENDEDOR DIFERENTE A LA REQUERIDA"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": {"cbu": "9984788700000000000420","alias": ""},"cuit": "27375575847"},}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7110","descripcion": "MONEDA DEL COMPRADOR DIFERENTE A LA REQUERIDA"}}}</t>
+  </si>
+  <si>
+    <t>ALIAS MAL FORMULADO</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7114","descripcion": "ALIAS MAL FORMULADO DEL COMPRADOR"}}}</t>
+  </si>
+  <si>
+    <t>CBU MAL FORMULADO VENDEDOR</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor": {"cbu": "9982879600000000000"}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7116","descripcion": "CBU MAL FORMULADO DEL VENDEDOR"}}}</t>
+  </si>
+  <si>
+    <t>CBU MAL FORMULADO COMPRADOR</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "","descripcion": "CBU MAL FORMULADO COMPRADOR"}}}</t>
+  </si>
+  <si>
+    <t>CUIT MAL FORMULADO DEL VENDEDOR</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor": {"cuit": "200000001"}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "","descripcion": "CUIT MAL FORMULADO DEL VENDEDOR"}}}</t>
+  </si>
+  <si>
+    <t>CUIT MAL FORMULADO DEL COMPRADOR</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": "cuit": "2000000014-"},}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "","descripcion": ""}}}</t>
+  </si>
+  <si>
+    <t>DESCRIPCION INVALIDA</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "descripcion": ""}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7122","descripcion": "DESCRIPCION INVALIDA"}}}</t>
+  </si>
+  <si>
+    <t>NO COINCIDEN LOS BANCOS (TOKEN)</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7123","descripcion": "NO COINCIDEN LOS BANCOS"}}}</t>
+  </si>
+  <si>
+    <t>CBU DESTINO Y ORIGEN IDENTICOS</t>
+  </si>
+  <si>
+    <t>operacion:{"vendedor":{"cuit":"20333048494","cbu":"9989675900000000000208","banco":"000","sucursal":"0004","terminal":2312312},"comprador":{"cuenta":{"cbu":"9989675900000000000208","alias":""},"cuit":"20000000222"},}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7125","descripcion": "CBU DESTINO Y ORIGEN IDENTICOS"}}}</t>
+  </si>
+  <si>
+    <t>MONEDA INEXISTENTE</t>
+  </si>
+  <si>
+    <t>CONCEPTO INVALIDO (NOMECLATURA INEXISTENTE)</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7128","descripcion": "CONCEPTO INVALIDO (NOMENCLATURA INEXISTENTE)"}}}</t>
+  </si>
+  <si>
+    <t>BANCO VENDEDOR NO HABILITADO PARA TRANSACCIONES</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor": {"cbu":"0000004800000000008622","banco":"018",}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7129","descripcion": "BANCO VENDEDOR NO HABILITADO PARA TRANSACCIONES"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7131","descripcion": "IP INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>IP INCORRECTO</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7132","descripcion": "DISPOSITIVO INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>DISPOSITIVO INCORRECTO</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{ "plataforma":"06",}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{ "tipo_dispositivo":"04",}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{ "ip_cliente":"192",}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7133","descripcion": "PLATAFORMA INCORRECTA"}}}</t>
+  </si>
+  <si>
+    <t>PLATAFORMA INCORRECTA</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{ "imsi":"123456789012342365235864275118888",}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7134","descripcion": "IMSI INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>IMSI INCORRECTO</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{"imei":"123456789012342365235864275118888"}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7135","descripcion": "IMEI INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>IMEI INCORRECTO</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{"ubicacion":{"lat":-181,},}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7136","descripcion": "LATITUD(-90/90) O LONGITUD(-180/180) INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>LATITUD INCORRECTA</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{"ubicacion":{"lng":-90,},}</t>
+  </si>
+  <si>
+    <t>LONGITUD INCORRECTA</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{"ubicacion":{"precision": v},}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7137","descripcion": "PRECISION INCORRECTA"}}}</t>
+  </si>
+  <si>
+    <t>PRECISION INCORRECTA</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "moneda": "32",}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "concepto": "V",}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "id_billetera": 2}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7153","descripcion": "BILLETERA NO HABILITADA"}}}</t>
+  </si>
+  <si>
+    <t>BILLETERA INEXISTENTE</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "id_comprobante": 56456456456456456456456456456,}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7198","descripcion": "JSON INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>ID COMPROBANTE INVALIDO</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "id_usuario":GHJGHJGHJ,}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "banco":"876",}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "","descripcion": "BANCO CREDITO INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>BANCO CREDITO INCORRECTO</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7148","descripcion": "SUCURSAL CREDITO INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor": {"banco":"876",}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor": {"sucursal":"er4",}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"terminal": "hhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh",}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7149","descripcion": "TERMINAL CREDITO INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>SUCURSAL CREDITO INCORRECTO</t>
+  </si>
+  <si>
+    <t>TERMINAL CREDITO INCORRECTO</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "qr":" ",}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7151","descripcion": "QR INCORRECTO"}}}</t>
+  </si>
+  <si>
+    <t>QR INCORRECTO</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "qr_id_trx":7556,}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7152","descripcion": "ID DE OPERACION QR_ID_TRX EXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>ID QR_ID_TRX EXISTENTE</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "id_billetera":0}}</t>
+  </si>
+  <si>
+    <t>BILLETERA NO HABILITADA</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor": {"cbu":"3400-",}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7154","descripcion": "CVU VENDEDOR NO HABILITADO"}}}</t>
+  </si>
+  <si>
+    <t>CVU VENDEDOR NO HABILITADO</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7155","descripcion": "CVU COMPRADOR NO HABILITADO"}}}</t>
+  </si>
+  <si>
+    <t>CVU COMPRADOR NO HABILITADO</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "banco":,}}</t>
+  </si>
+  <si>
+    <t>JSON INCORRECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CREACION CORRECTA -- CVU a CBU (Misma recaudadora)</t>
+  </si>
+  <si>
+    <t>CREACION CORRECTA -- CBU a CVU (Misma recaudadora)</t>
+  </si>
+  <si>
+    <t>CREACION CORRECTA -- CVU A CVU (Misma recaudadora)</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7100","descripcion": "CREACION CORRECTA"}}}</t>
+  </si>
+  <si>
+    <t>CBU DESTINO Y ORIGEN IDENTICOS -- CVU A CVU (Mismas cvus)</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "moneda": "840",}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":999999999999989.99,}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":0.001,}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "tiempo_expiracion": "0",}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "tiempo_expiracion": "12",}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor": {"cbu": "9980001100000000000017",}}</t>
   </si>
 </sst>
 </file>
@@ -84,15 +414,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,11 +448,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -113,6 +470,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,22 +756,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="88.28515625" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="4" max="4" width="82.36328125" customWidth="1"/>
+    <col min="5" max="5" width="54.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -425,7 +788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -436,7 +799,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -444,13 +807,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -458,43 +821,765 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A51162-926E-4942-A8C3-960E1DB451EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FF8294-DDC3-4D31-8015-4ACDAF011E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
   <si>
     <t>Parametros</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>"operacion":{"vendedor": {"cbu": "9980001100000000000017",}}</t>
+  </si>
+  <si>
+    <t>ID USUARIO INVALIDO</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "","descripcion": "MONEDA INEXISTENTE"}}}</t>
   </si>
 </sst>
 </file>
@@ -758,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1102,7 +1108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>48</v>
@@ -1337,7 +1343,7 @@
         <v>83</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FF8294-DDC3-4D31-8015-4ACDAF011E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FD34CD-6624-4450-A3A6-02D0CB9B2054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
   <si>
     <t>Parametros</t>
   </si>
@@ -50,9 +48,6 @@
     <t>Respuestas</t>
   </si>
   <si>
-    <t>QRDebin</t>
-  </si>
-  <si>
     <t>QRDebin*</t>
   </si>
   <si>
@@ -405,6 +400,9 @@
   </si>
   <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "","descripcion": "MONEDA INEXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>MONEDA COMPRADOR INCORRECTA</t>
   </si>
 </sst>
 </file>
@@ -420,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -482,6 +486,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,22 +774,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.36328125" customWidth="1"/>
-    <col min="5" max="5" width="54.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -794,88 +806,94 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>53799</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>53800</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>53801</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>53802</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>53803</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>118</v>
@@ -884,704 +902,687 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>53804</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>53805</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="2" t="s">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>53806</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>53807</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E35" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E39" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>102</v>
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="E41" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E42" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>104</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FD34CD-6624-4450-A3A6-02D0CB9B2054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF33E75A-C2BE-4D51-9D33-DDF15490EEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="2040" windowWidth="11310" windowHeight="7875" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>CBU MAL FORMULADO COMPRADOR</t>
   </si>
   <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "","descripcion": "CBU MAL FORMULADO COMPRADOR"}}}</t>
-  </si>
-  <si>
     <t>CUIT MAL FORMULADO DEL VENDEDOR</t>
   </si>
   <si>
@@ -403,6 +400,9 @@
   </si>
   <si>
     <t>MONEDA COMPRADOR INCORRECTA</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": {"cbu": "","alias": "null"},"cuit": "27375575847"},}</t>
   </si>
 </sst>
 </file>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -879,7 +879,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -896,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -913,7 +913,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -930,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -970,29 +970,29 @@
         <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>53808</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>53809</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>5</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>53810</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
@@ -1018,9 +1018,9 @@
         <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1032,13 +1032,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1049,13 +1049,13 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1086,10 +1086,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1100,13 +1100,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1117,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1134,13 +1134,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1151,13 +1151,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1168,13 +1168,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1185,13 +1185,13 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1202,13 +1202,13 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1219,13 +1219,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1236,13 +1236,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1253,13 +1253,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1270,13 +1270,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1287,13 +1287,13 @@
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1304,13 +1304,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1321,13 +1321,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1338,13 +1338,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1355,13 +1355,13 @@
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1372,13 +1372,13 @@
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1389,13 +1389,13 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1406,13 +1406,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1423,13 +1423,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1440,13 +1440,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1457,13 +1457,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1474,13 +1474,13 @@
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1491,13 +1491,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1508,13 +1508,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1525,13 +1525,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1542,13 +1542,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1559,13 +1559,13 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1576,13 +1576,13 @@
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF33E75A-C2BE-4D51-9D33-DDF15490EEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80B9AE7-9110-478D-9413-FDF3FD3FAAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="2040" windowWidth="11310" windowHeight="7875" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="126">
   <si>
     <t>Parametros</t>
   </si>
@@ -141,18 +141,12 @@
     <t>CUIT MAL FORMULADO DEL COMPRADOR</t>
   </si>
   <si>
-    <t>"operacion":{"comprador": {"cuenta": "cuit": "2000000014-"},}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "","descripcion": ""}}}</t>
   </si>
   <si>
     <t>DESCRIPCION INVALIDA</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{ "descripcion": ""}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7122","descripcion": "DESCRIPCION INVALIDA"}}}</t>
   </si>
   <si>
@@ -403,6 +397,18 @@
   </si>
   <si>
     <t>"operacion":{"comprador": {"cuenta": {"cbu": "","alias": "null"},"cuit": "27375575847"},}</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": "cuit": "2000000014-"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": "cbu":"99847887000000000004"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "descripcion": "qqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqq"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": {"cbu": "9992798100000000001003","alias": ""},"cuit": "20000000990"},}</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -480,7 +486,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -494,6 +499,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -879,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -896,7 +905,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -913,7 +922,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -930,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -947,30 +956,30 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>53807</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>122</v>
+      <c r="E11" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -981,12 +990,12 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1003,7 +1012,7 @@
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1015,18 +1024,18 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>53811</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -1037,280 +1046,280 @@
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>53812</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>53814</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>53816</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>53817</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>53813</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>53818</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>53819</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="5" t="s">
         <v>49</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>53820</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>53821</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>53822</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>53823</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>53824</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>53825</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>53826</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>53827</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>53828</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1321,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1338,13 +1347,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>120</v>
+        <v>79</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1355,13 +1364,13 @@
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1372,13 +1381,13 @@
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1389,13 +1398,13 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1406,13 +1415,13 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1423,13 +1432,13 @@
         <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1440,13 +1449,13 @@
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1457,13 +1466,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>101</v>
+        <v>76</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1474,13 +1483,13 @@
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1491,13 +1500,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1508,13 +1517,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>108</v>
+        <v>79</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1525,13 +1534,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1542,13 +1551,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="9" t="s">
         <v>110</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1559,13 +1568,13 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1576,13 +1585,13 @@
         <v>5</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>113</v>
+        <v>43</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF33E75A-C2BE-4D51-9D33-DDF15490EEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEF2C62-EAC8-4272-97CF-65EE51111392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="2040" windowWidth="11310" windowHeight="7875" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -776,20 +776,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="54.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -806,7 +806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -820,7 +820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>53799</v>
       </c>
@@ -837,7 +837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>53800</v>
       </c>
@@ -854,7 +854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>53801</v>
       </c>
@@ -871,7 +871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>53802</v>
       </c>
@@ -888,7 +888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>53803</v>
       </c>
@@ -905,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>53804</v>
       </c>
@@ -922,7 +922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>53805</v>
       </c>
@@ -939,7 +939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>53806</v>
       </c>
@@ -956,7 +956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>53807</v>
       </c>
@@ -973,7 +973,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>53808</v>
       </c>
@@ -990,7 +990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>53809</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>53810</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D2E70F-0A61-4320-9037-9A418F27C299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7890017-7CD7-4B14-B435-1A640B6731B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="QR" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
   <si>
     <t>Parametros</t>
   </si>
@@ -96,9 +96,6 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7109","descripcion": "MONEDA DEL VENDEDOR DIFERENTE A LA REQUERIDA"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"comprador": {"cuenta": {"cbu": "9984788700000000000420","alias": ""},"cuit": "27375575847"},}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7110","descripcion": "MONEDA DEL COMPRADOR DIFERENTE A LA REQUERIDA"}}}</t>
   </si>
   <si>
@@ -234,27 +231,12 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7100","descripcion": "CREACION CORRECTA"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{ "moneda": "840",}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{"importe":0.001,}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{ "tiempo_expiracion": "0",}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{ "tiempo_expiracion": "12",}}</t>
-  </si>
-  <si>
     <t>ID USUARIO INVALIDO</t>
   </si>
   <si>
     <t>MONEDA COMPRADOR INCORRECTA</t>
   </si>
   <si>
-    <t>"operacion":{"comprador": {"cuenta": {"cbu": "","alias": "null"},"cuit": "27375575847"},}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{ "descripcion": "qqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqq"}}</t>
   </si>
   <si>
@@ -264,18 +246,12 @@
     <t>"operacion":{"comprador":{"cuenta":{"cbu":"99847887000000000004"}}}}</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":"99999999999999.99",}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"comprador":{"cuenta":{"cbu":"9988851800000000000628","alias":""},"cuit":"203330484"}}}</t>
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"comprador":{"cuenta":{"cbu":"0000004800000000008622","alias":""},"cuit":"20333048494"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"datos_generador":{"ubicacion":{"precision":"1234567890123"}}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{ "id_billetera": 3}}</t>
   </si>
   <si>
@@ -418,6 +394,102 @@
   </si>
   <si>
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001","terminal":2312312},"comprador":{"cuenta":{"cbu":"9988851800000000000628","alias":""},"cuit":"20333048494"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20333048494","cuenta":{"cbu":"9988851800000000000628"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":250},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}}}</t>
+  </si>
+  <si>
+    <t>CASHOUT - AvisoCredito - Tipo de objeto 'CASHOUT'</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7541","descripcion":"PERSISTIDO"}}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT"},"credito":{"cuit":"20956746117","banco":"000","sucursal":"0213","cuenta":{"cbu":"0000213699900070000000"},"titular":""},"debito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>CashOut*</t>
+  </si>
+  <si>
+    <t>CASHOUT - Validación ori_trx_id - CBU &gt; CBU</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta":{"codigo":"7552","descripcion":"O7L8GYKNXRV5MKONMPRZ50 - ID DE OPERACION  EXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1141},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"998","sucursal":"4788","cuenta":{"cbu":"9984788700000000000420"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"moneda":"032","importe":10}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASHOUT - Validación ori_trx_id - CVU &gt; CVU </t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"8PDX4OGNYJ0P80VN0L6EY5 - ID DE OPERACION  EXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"000","sucursal":"8851","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "tiempo_expiracion": 0}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "tiempo_expiracion": 12}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":99999999999999.9900}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "moneda": "840"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": {"cbu": "","alias": "null"},"cuit": "27375575847"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": {"cbu": "9984788700000000000420","alias": ""},"cuit": "27375575847"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":0.001}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001","terminal":2312312},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":200}}}|"operacion_original":{"detalle":{"importe":250},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{"ubicacion":{"precision":1234567890123}}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001","terminal":2312312},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":200}}}|"operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}}}</t>
+  </si>
+  <si>
+    <t>Devolución Total - ORI_ID_TRX - Caso OK</t>
+  </si>
+  <si>
+    <t>QRSolicitudContraCargo*</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":50},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991236"},"objeto":{"ori_trx_id":"00000320"}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5624","descripcion":"ORI_TRX_ID EXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>Devolución Parcial - ORI_ID_TRX - ID Existente</t>
+  </si>
+  <si>
+    <t>Devolución Parcial - ORI_ID_TRX - Caso OK</t>
+  </si>
+  <si>
+    <t>Devolución Total - ORI_ID_TRX - ID Existente</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":127},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991246"},"objeto":{"ori_trx_id":"00000322"}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devolución Parcial - ORI_ID_TRX - Parcial con ORI_ID_TRX después de Parcial sin ORI_ID_TRX </t>
+  </si>
+  <si>
+    <t>QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991254"}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991254"}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991254"}}</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991255"}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991255"}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991255"}}</t>
   </si>
 </sst>
 </file>
@@ -433,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,12 +515,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -488,28 +554,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -785,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,13 +877,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -876,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -893,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -910,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -927,7 +979,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -937,615 +989,615 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9">
+        <v>53805</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>53806</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>53807</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>53807</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>53808</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>53808</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>53809</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <v>53809</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>53810</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>53811</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>53812</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>53811</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>53812</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4" t="s">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>53813</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>53814</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>53813</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>53816</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>53817</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>53818</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>53814</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>53816</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>53817</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>53818</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>53819</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>53820</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>53821</v>
+        <v>53820</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>53822</v>
+        <v>53821</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>53823</v>
+        <v>53822</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>53824</v>
+        <v>53823</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>53825</v>
+        <v>53824</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
+        <v>53825</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>53826</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>53827</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>53827</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="E30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="13" t="s">
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>53828</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>53828</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="4" t="s">
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>53829</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>53829</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="E32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>53830</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>53831</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>98</v>
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
+        <v>53831</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>53832</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>53833</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>53834</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>53835</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>53836</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>53837</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>53840</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>53842</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>59833</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>53833</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>53834</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>53835</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>53840</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>53842</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>59833</v>
-      </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>53837</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>59841</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>53836</v>
-      </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>59841</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>53805</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1553,16 +1605,169 @@
         <v>60532</v>
       </c>
       <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>59007</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>59006</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="E47" s="10" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>59305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>60902</v>
+      </c>
+      <c r="B49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>60903</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>60904</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>60905</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>60906</v>
+      </c>
+      <c r="B53" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>60907</v>
+      </c>
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7890017-7CD7-4B14-B435-1A640B6731B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0734F478-AD31-4A2F-A4E8-69AB35AF3349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="151">
   <si>
     <t>Parametros</t>
   </si>
@@ -480,16 +480,13 @@
     <t>"operacion_original":{"detalle":{"importe":127},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991246"},"objeto":{"ori_trx_id":"00000322"}}</t>
   </si>
   <si>
-    <t xml:space="preserve">Devolución Parcial - ORI_ID_TRX - Parcial con ORI_ID_TRX después de Parcial sin ORI_ID_TRX </t>
-  </si>
-  <si>
     <t>QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*</t>
   </si>
   <si>
     <t>"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991254"}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991254"}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991254"}}</t>
   </si>
   <si>
-    <t>"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991255"}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991255"}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"0060914262123991255"}}</t>
+    <t xml:space="preserve">Devolución Parcial - ORI_ID_TRX - Parcial con ORI_ID_TRX después de Parcial con ORI_ID_TRX </t>
   </si>
 </sst>
 </file>
@@ -837,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,33 +1738,16 @@
         <v>60906</v>
       </c>
       <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <v>60907</v>
-      </c>
-      <c r="B54" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95AA216-CEAA-43E4-A6E1-E5E54064A6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27112675-BD71-4404-A0D7-F3DD8044A37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
     <t>QRConfimaDebito - Caso Feliz - Interoperable - Coelsa Aceptador</t>
   </si>
   <si>
-    <t>{"StatusCode":201,"Mensaje":{"respuesta": {"code":"APPROVED","descripcion":"PAYMENT CREACION CORRECTA"}}}</t>
+    <t>{"StatusCode":201,"Mensaje":{"transaction": {"code":"APPROVED","description":"PAYMENT CREACION CORRECTA"}}}</t>
   </si>
 </sst>
 </file>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,20 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27112675-BD71-4404-A0D7-F3DD8044A37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585DF6E4-C70D-499D-87AD-9953D5DD3AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
     <sheet name="CONTRACARGOQR" sheetId="8" r:id="rId2"/>
     <sheet name="CASHOUT" sheetId="9" r:id="rId3"/>
-    <sheet name="INTEROPERBILIDAD" sheetId="10" r:id="rId4"/>
+    <sheet name="INTEROPERBILIDAD" sheetId="12" r:id="rId4"/>
+    <sheet name="GETIDPSP" sheetId="13" r:id="rId5"/>
+    <sheet name="INTEROPERBILIDAD 3" sheetId="10" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CASHOUT!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CONTRACARGOQR!$A$1:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">INTEROPERBILIDAD!$A$1:$E$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">GETIDPSP!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">INTEROPERBILIDAD!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'INTEROPERBILIDAD 3'!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="183">
   <si>
     <t>Parametros</t>
   </si>
@@ -516,16 +520,79 @@
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"objeto":{"ori_trx_id":" "}}}</t>
   </si>
   <si>
-    <t>PaymentValidation*-&gt;Payment</t>
-  </si>
-  <si>
-    <t>"payer":{"identification_number":"20000000222","document":{"type":"DNI","number":"00000022"},"account":{"cbu":"9981522200000000000192","wallet":{"name":"PAYPAUL","cuit":"20000000346"}},"acquirer":{"reverse_domain":"com.mercadolibre","cuit":"30703088534"},"merchant":{"cuit":"20374372689","account":{"cbu":"0168888100008273570145","cvu":"0000084000000000000024"}}}}|"payer":{"identification_number":"20000000222","document":{"type":"DNI","number":"00000022"},"account":{"cbu":"9981522200000000000192","wallet":{"name":"PAYPAUL","cuit":"20000000346"}},"acquirer":{"reverse_domain":"com.mercadolibre","cuit":"30703088534"},"merchant":{"cuit":"20374372689","account":{"cbu":"0168888100008273570145","cvu":"0000084000000000000024"}}}}</t>
-  </si>
-  <si>
     <t>QRConfimaDebito - Caso Feliz - Interoperable - Coelsa Aceptador</t>
   </si>
   <si>
     <t>{"StatusCode":201,"Mensaje":{"transaction": {"code":"APPROVED","description":"PAYMENT CREACION CORRECTA"}}}</t>
+  </si>
+  <si>
+    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Datos POST [PSP]/QRIntencionDePago</t>
+  </si>
+  <si>
+    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Envio POST [PSP]/QRIntencionDePago</t>
+  </si>
+  <si>
+    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Respuesta QRIntenciondePago</t>
+  </si>
+  <si>
+    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Datos Respuesta</t>
+  </si>
+  <si>
+    <t>QRDebin - MVP1 - QRIntencionPago - Caso OK - Datos Respuesta</t>
+  </si>
+  <si>
+    <t>QRDebin- MVP1 - QRIntencionPago - Caso OK - Envio POST [PSP]/QRIntencionDePago</t>
+  </si>
+  <si>
+    <t>QRDebin- MVP1 - QRIntencionPago - Caso OK - AvisoDebinPendiente</t>
+  </si>
+  <si>
+    <t>QRDebin- MVP1 - QRIntencionPago - Caso OK - Coelsa Billetera Envio POST QRIntencionDePago</t>
+  </si>
+  <si>
+    <t>"endpoint":"debin","id":"debin.id","aviso":"AvisoDebinPendiente","producto":"responder"</t>
+  </si>
+  <si>
+    <t>QRConfimaDebito - Caso No Feliz - Coelsa - Validar Concepto CCT/PCT/ECT</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7128","descripcion":"CONCEPTO INVALIDO (NOMENCLATURA INEXISTENTE)"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"VAR","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>Split - Interoperable - Coelsa Aceptador</t>
+  </si>
+  <si>
+    <t>"endpoint":"debin","id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
+  </si>
+  <si>
+    <t>QRDebin-&gt;aviso*</t>
+  </si>
+  <si>
+    <t>PaymentValidation-&gt;Payment-&gt;aviso*</t>
+  </si>
+  <si>
+    <t>PaymentValidation-&gt;Payment</t>
+  </si>
+  <si>
+    <t>"payer":{"identification_number":"20000000222","document":{"type":"DNI","number":"00000022"},"account":{"cbu":"9981522200000000000192","wallet":{"name":"PAYPAUL","cuit":"20000000346"}},"acquirer":{"reverse_domain":"com.mercadolibre","cuit":"30703088534"},"merchant":{"cuit":"20374372689","account":{"cbu":"0168888100008273570145","cvu":"0000084000000000000024"}}}}|"payer":{"identification_number":"20000000222","document":{"type":"DNI","number":"00000022"},"account":{"cbu":"9981522200000000000192","wallet":{"name":"PAYPAUL","cuit":"20000000346"}},"acquirer":{"reverse_domain":"com.mercadolibre","cuit":"30703088534"},"merchant":{"cuit":"20374372689","account":{"cbu":"0168888100008273570145","cvu":"0000084000000000000024"}}}}|"id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
+  </si>
+  <si>
+    <t>PaymentValidation-&gt;aviso*</t>
+  </si>
+  <si>
+    <t>"endpoint":"debin","id":"debin.id","aviso":"validation","producto":"responder"</t>
+  </si>
+  <si>
+    <t>getidpsp*</t>
+  </si>
+  <si>
+    <t>GET apiDebinV1/QR/QRDebin/{qr_id_trx}/{id_psp} - PaymentReference</t>
+  </si>
+  <si>
+    <t>"qr_id_trx":"Test Auto 14592767","id_psp":"0004",</t>
   </si>
 </sst>
 </file>
@@ -573,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -615,11 +682,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -895,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,7 +1759,69 @@
         <v>114</v>
       </c>
     </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>62080</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>60688</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>60780</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>60850</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="E46:E48">
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1668,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,8 +2112,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF729BDF-5E3F-45D9-877E-42F3FAFCFF40}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27905B-1E87-40DF-B6B4-452FD9A02DC6}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>61353</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>60848</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1982,31 +2215,139 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>61353</v>
+        <v>62551</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="10"/>
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF729BDF-5E3F-45D9-877E-42F3FAFCFF40}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>61353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>60848</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60851</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>60852</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60854</v>
+      </c>
+      <c r="E6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60955</v>
+      </c>
+      <c r="E7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>61946</v>
+      </c>
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E3:E7">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585DF6E4-C70D-499D-87AD-9953D5DD3AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE69A9-F01D-46CD-BF8F-AE7746D19880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,7 +592,7 @@
     <t>GET apiDebinV1/QR/QRDebin/{qr_id_trx}/{id_psp} - PaymentReference</t>
   </si>
   <si>
-    <t>"qr_id_trx":"Test Auto 14592767","id_psp":"0004",</t>
+    <t>"qr_id_trx":"Test Auto 14592767","id_psp":"0004"</t>
   </si>
 </sst>
 </file>
@@ -2186,7 +2186,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE69A9-F01D-46CD-BF8F-AE7746D19880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243126B8-2379-4863-A7C5-AF151E01B220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -517,9 +517,6 @@
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"00000000000111111111111"}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"objeto":{"ori_trx_id":" "}}}</t>
-  </si>
-  <si>
     <t>QRConfimaDebito - Caso Feliz - Interoperable - Coelsa Aceptador</t>
   </si>
   <si>
@@ -592,7 +589,10 @@
     <t>GET apiDebinV1/QR/QRDebin/{qr_id_trx}/{id_psp} - PaymentReference</t>
   </si>
   <si>
-    <t>"qr_id_trx":"Test Auto 14592767","id_psp":"0004"</t>
+    <t>"qr_id_trx":"Test%20Auto%2014592767","id_psp":"0004"</t>
+  </si>
+  <si>
+    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}},"objeto":{"ori_trx_id":" "}</t>
   </si>
 </sst>
 </file>
@@ -1767,13 +1767,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,13 +1781,13 @@
         <v>60688</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1795,13 +1795,13 @@
         <v>60780</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,13 +1809,13 @@
         <v>60850</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1831,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,20 +1997,20 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>60910</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2150,14 +2150,14 @@
         <v>61353</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2165,14 +2165,14 @@
         <v>60848</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2185,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,14 +2220,14 @@
         <v>62551</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2275,16 +2275,16 @@
         <v>61353</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,11 +2292,11 @@
         <v>60848</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,7 +2313,7 @@
         <v>60852</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,7 +2321,7 @@
         <v>60854</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,7 +2329,7 @@
         <v>60955</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>61946</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243126B8-2379-4863-A7C5-AF151E01B220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA06F2C-8F49-471E-8252-FFCCDBE597E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="181">
   <si>
     <t>Parametros</t>
   </si>
@@ -502,21 +502,6 @@
     <t>QRDebin*-&gt;ConfirmaDebito*-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9988851800000000000628","alias":""},"cuit":"20333048494"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20333048494","cuenta":{"cbu":"9988851800000000000628"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":250},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":250},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":3000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":3000}}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"qr_id_trx":"00000000000111111111111"}}</t>
-  </si>
-  <si>
     <t>QRConfimaDebito - Caso Feliz - Interoperable - Coelsa Aceptador</t>
   </si>
   <si>
@@ -544,9 +529,6 @@
     <t>QRDebin- MVP1 - QRIntencionPago - Caso OK - AvisoDebinPendiente</t>
   </si>
   <si>
-    <t>QRDebin- MVP1 - QRIntencionPago - Caso OK - Coelsa Billetera Envio POST QRIntencionDePago</t>
-  </si>
-  <si>
     <t>"endpoint":"debin","id":"debin.id","aviso":"AvisoDebinPendiente","producto":"responder"</t>
   </si>
   <si>
@@ -580,9 +562,6 @@
     <t>PaymentValidation-&gt;aviso*</t>
   </si>
   <si>
-    <t>"endpoint":"debin","id":"debin.id","aviso":"validation","producto":"responder"</t>
-  </si>
-  <si>
     <t>getidpsp*</t>
   </si>
   <si>
@@ -592,7 +571,22 @@
     <t>"qr_id_trx":"Test%20Auto%2014592767","id_psp":"0004"</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622","banco":"000","sucursal":"0001"},"comprador":{"cuenta":{"cbu":"9984788700000000000420","alias":""},"cuit":"20000009963"},"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"20000009963","cuenta":{"cbu":"9984788700000000000420"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1},"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"}},"objeto":{"ori_trx_id":" "}</t>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":250}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1000}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"00000000000111111111111"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1000},"qr_id_trx":"00000000000111111111111"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}},"objeto":{"ori_trx_id":" "}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}}}|"operacion_original":{"detalle":{"importe":1}}}|"operacion_original":{"detalle":{"importe":1}}}</t>
   </si>
 </sst>
 </file>
@@ -996,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1767,13 +1761,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1781,46 +1775,32 @@
         <v>60688</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>60780</v>
       </c>
-      <c r="B47" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
-        <v>60850</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" t="s">
-        <v>166</v>
+      <c r="C47" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E46:E48">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+  <conditionalFormatting sqref="E46:E47">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1831,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60532</v>
       </c>
@@ -1869,7 +1849,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>118</v>
@@ -1878,7 +1858,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>60902</v>
       </c>
@@ -1886,7 +1866,7 @@
         <v>117</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>118</v>
@@ -1895,7 +1875,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>60903</v>
       </c>
@@ -1903,7 +1883,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>118</v>
@@ -1946,7 +1926,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>60906</v>
       </c>
@@ -1954,7 +1934,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>118</v>
@@ -1963,7 +1943,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>60908</v>
       </c>
@@ -1971,7 +1951,7 @@
         <v>117</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>148</v>
@@ -1980,7 +1960,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>60909</v>
       </c>
@@ -1988,7 +1968,7 @@
         <v>117</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>148</v>
@@ -1997,7 +1977,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>60910</v>
       </c>
@@ -2005,7 +1985,7 @@
         <v>117</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>149</v>
@@ -2024,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,14 +2130,14 @@
         <v>61353</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2165,14 +2145,14 @@
         <v>60848</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2220,14 +2200,14 @@
         <v>62551</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2275,16 +2255,16 @@
         <v>61353</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,11 +2272,11 @@
         <v>60848</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3" s="7"/>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,7 +2285,7 @@
       </c>
       <c r="C4" s="9"/>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2313,7 +2293,7 @@
         <v>60852</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,7 +2301,7 @@
         <v>60854</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,7 +2309,7 @@
         <v>60955</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2337,15 +2317,15 @@
         <v>61946</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3:E7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE103D-0959-4B4E-95F6-3BFAB7288EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A61D7D-AD5A-43E0-8109-A76E9A9F7F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="203">
   <si>
     <t>Parametros</t>
   </si>
@@ -614,6 +614,45 @@
   </si>
   <si>
     <t>"id":"M67REZ8NP1E680124KVGOP"</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;debindebin2*</t>
+  </si>
+  <si>
+    <t>debindebin2*</t>
+  </si>
+  <si>
+    <t>GET /apiDebinV1​/Debin​/Debin2​/{id} - Nuevos campos en JSON</t>
+  </si>
+  <si>
+    <t>GET /apiDebinV1​/Debin​/Debin2​/{id} - Devolucion Parcial</t>
+  </si>
+  <si>
+    <t>GET /apiDebinV1​/Debin​/Debin2​/{id} - ID HASH inexistente</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;debindebin2*</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"id":"debin.id"</t>
+  </si>
+  <si>
+    <t>Get Debin 2 --&gt; consultar por un Debin QR</t>
+  </si>
+  <si>
+    <t>CashOut*-&gt;debindebin2*</t>
+  </si>
+  <si>
+    <t>Get Debin 2 --&gt; consultar por un Cashout</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT"},"credito":{"cuit":"20956746117","banco":"000","sucursal":"0213","cuenta":{"cbu":"0000213699900070000000"},"titular":""},"debito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}|"id":"debin.id"</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;debindebin4*</t>
+  </si>
+  <si>
+    <t>debindebin4*</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1878,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2032,7 +2071,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,6 +2318,124 @@
         <v>188</v>
       </c>
       <c r="E5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59716</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>59718</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>59720</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>53394</v>
+      </c>
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>53395</v>
+      </c>
+      <c r="B10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>59542</v>
+      </c>
+      <c r="B11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59545</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>59551</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" t="s">
         <v>186</v>
       </c>
     </row>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A61D7D-AD5A-43E0-8109-A76E9A9F7F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712D367-B012-46C8-B72F-52F04E777493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="213">
   <si>
     <t>Parametros</t>
   </si>
@@ -653,6 +653,36 @@
   </si>
   <si>
     <t>debindebin4*</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7168","descripcion":"EL CUIT ADMINISTRADOR NO PERTENECE A LA RED INFORMADA)"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7168","descripcion":"CUIT ADMINISTRADOR MAL FORMULADO)"}}}</t>
+  </si>
+  <si>
+    <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Vacio</t>
+  </si>
+  <si>
+    <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Inexistente</t>
+  </si>
+  <si>
+    <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Invalido</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":""},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"2000000055"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000558"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000559"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
+  </si>
+  <si>
+    <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Valido</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,19 +1119,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="13">
         <v>53766</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1864,8 +1894,76 @@
         <v>160</v>
       </c>
     </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>59692</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>59693</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>59695</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>59696</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E46:E47">
+  <conditionalFormatting sqref="E46:E48 E51">
     <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1878,7 +1976,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,7 +2329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712D367-B012-46C8-B72F-52F04E777493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1ACC62-9452-4AF6-B555-9DD7B745A4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -18,14 +18,12 @@
     <sheet name="CASHOUT" sheetId="9" r:id="rId3"/>
     <sheet name="INTEROPERBILIDAD" sheetId="12" r:id="rId4"/>
     <sheet name="GETs" sheetId="13" r:id="rId5"/>
-    <sheet name="INTEROPERBILIDAD 3" sheetId="10" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CASHOUT!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CONTRACARGOQR!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">GETs!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">INTEROPERBILIDAD!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'INTEROPERBILIDAD 3'!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="214">
   <si>
     <t>Parametros</t>
   </si>
@@ -511,18 +509,6 @@
     <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Datos POST [PSP]/QRIntencionDePago</t>
   </si>
   <si>
-    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Envio POST [PSP]/QRIntencionDePago</t>
-  </si>
-  <si>
-    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Respuesta QRIntenciondePago</t>
-  </si>
-  <si>
-    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Datos Respuesta</t>
-  </si>
-  <si>
-    <t>QRDebin - MVP1 - QRIntencionPago - Caso OK - Datos Respuesta</t>
-  </si>
-  <si>
     <t>QRDebin- MVP1 - QRIntencionPago - Caso OK - Envio POST [PSP]/QRIntencionDePago</t>
   </si>
   <si>
@@ -541,24 +527,15 @@
     <t>"operacion":{"detalle":{"concepto":"VAR","importe":1000}}}</t>
   </si>
   <si>
-    <t>Split - Interoperable - Coelsa Aceptador</t>
-  </si>
-  <si>
     <t>"endpoint":"debin","id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
   </si>
   <si>
     <t>QRDebin-&gt;aviso*</t>
   </si>
   <si>
-    <t>PaymentValidation-&gt;Payment-&gt;aviso*</t>
-  </si>
-  <si>
     <t>PaymentValidation-&gt;Payment</t>
   </si>
   <si>
-    <t>"payer":{"identification_number":"20000000222","document":{"type":"DNI","number":"00000022"},"account":{"cbu":"9981522200000000000192","wallet":{"name":"PAYPAUL","cuit":"20000000346"}},"acquirer":{"reverse_domain":"com.mercadolibre","cuit":"30703088534"},"merchant":{"cuit":"20374372689","account":{"cbu":"0168888100008273570145","cvu":"0000084000000000000024"}}}}|"payer":{"identification_number":"20000000222","document":{"type":"DNI","number":"00000022"},"account":{"cbu":"9981522200000000000192","wallet":{"name":"PAYPAUL","cuit":"20000000346"}},"acquirer":{"reverse_domain":"com.mercadolibre","cuit":"30703088534"},"merchant":{"cuit":"20374372689","account":{"cbu":"0168888100008273570145","cvu":"0000084000000000000024"}}}}|"id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
-  </si>
-  <si>
     <t>PaymentValidation-&gt;aviso*</t>
   </si>
   <si>
@@ -683,6 +660,30 @@
   </si>
   <si>
     <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Valido</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;QRSolicitudContraCargo*-&gt;aviso*</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1000}}}|"id":"debin.id","aviso":"QROperacionFinalizada","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":250}}}|"id":"debin.id","aviso":"QROperacionFinalizada","producto":"responder"</t>
+  </si>
+  <si>
+    <t>POST [epBilletera]/QROperacionFinalizada - 5705 DEVOLUCION TOTAL (Coelsa - Coelsa)</t>
+  </si>
+  <si>
+    <t>POST [epBilletera]/QROperacionFinalizada - 5708 DEVOLUCION PARCIAL (Coelsa-Coelsa)</t>
+  </si>
+  <si>
+    <t>"id":"4XJ8G7V95JLW86R9EMPYR0"</t>
+  </si>
+  <si>
+    <t>GET Debin4: Propiedad ori_trx_id - Coelsa Coelsa - OK</t>
+  </si>
+  <si>
+    <t>GET Debin4: Propiedad ori_trx_id - Coelsa Billetera - OK</t>
   </si>
 </sst>
 </file>
@@ -779,27 +780,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1088,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1857,13 +1838,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1871,13 +1852,13 @@
         <v>60688</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1885,13 +1866,13 @@
         <v>60780</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1902,13 +1883,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1919,13 +1900,13 @@
         <v>5</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1936,13 +1917,13 @@
         <v>5</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1953,18 +1934,18 @@
         <v>5</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E46:E48 E51">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1973,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,7 +1994,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>118</v>
@@ -2030,7 +2011,7 @@
         <v>117</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>118</v>
@@ -2047,7 +2028,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>118</v>
@@ -2098,7 +2079,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>118</v>
@@ -2115,7 +2096,7 @@
         <v>117</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>148</v>
@@ -2132,7 +2113,7 @@
         <v>117</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>148</v>
@@ -2149,13 +2130,47 @@
         <v>117</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>149</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>59603</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>59604</v>
+      </c>
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2275,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,7 +2309,7 @@
         <v>61353</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="6" t="s">
@@ -2309,10 +2324,10 @@
         <v>60848</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
@@ -2327,10 +2342,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,14 +2379,14 @@
         <v>62551</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="10" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2379,13 +2394,13 @@
         <v>62851</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2393,13 +2408,13 @@
         <v>62852</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2407,16 +2422,16 @@
         <v>62854</v>
       </c>
       <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>188</v>
-      </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2424,13 +2439,13 @@
         <v>59716</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2438,13 +2453,13 @@
         <v>59718</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2452,16 +2467,16 @@
         <v>59720</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,13 +2484,13 @@
         <v>53394</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2483,13 +2498,13 @@
         <v>53395</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2497,13 +2512,13 @@
         <v>59542</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,13 +2526,13 @@
         <v>59545</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2525,136 +2540,40 @@
         <v>59551</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60684</v>
+      </c>
+      <c r="B14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="E15" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF729BDF-5E3F-45D9-877E-42F3FAFCFF40}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>61353</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>60848</v>
-      </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>60851</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="E4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>60852</v>
-      </c>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>60854</v>
-      </c>
-      <c r="E6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>60955</v>
-      </c>
-      <c r="E7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>61946</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E3:E7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1ACC62-9452-4AF6-B555-9DD7B745A4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710608BC-3C38-400C-AE3A-2BF9175345D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="214">
   <si>
     <t>Parametros</t>
   </si>
@@ -554,15 +554,6 @@
     <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1000}}}</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"00000000000111111111111"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1000},"qr_id_trx":"00000000000111111111111"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}},"objeto":{"ori_trx_id":" "}}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}}}|"operacion_original":{"detalle":{"importe":1}}}|"operacion_original":{"detalle":{"importe":1}}}</t>
   </si>
   <si>
@@ -684,6 +675,15 @@
   </si>
   <si>
     <t>GET Debin4: Propiedad ori_trx_id - Coelsa Billetera - OK</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"00000000000111111111111"},"objeto":{"ori_trx_id":"9223000000000066307"},"sql":"off"</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":1000},"qr_id_trx":"00000000000111111111111"},"objeto":{"ori_trx_id":"9223000000000066307"},"sql":"off"</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"Test%20Auto%2014594309"},"objeto":{"ori_trx_id":" "}},"sql":"off"</t>
   </si>
 </sst>
 </file>
@@ -1883,13 +1883,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1900,13 +1900,13 @@
         <v>5</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" t="s">
         <v>196</v>
-      </c>
-      <c r="E49" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1917,13 +1917,13 @@
         <v>5</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1934,13 +1934,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1956,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,7 +2079,7 @@
         <v>151</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>118</v>
@@ -2088,15 +2088,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>60908</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>148</v>
@@ -2105,7 +2105,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>60909</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>117</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>148</v>
@@ -2122,15 +2122,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>60910</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>149</v>
@@ -2144,16 +2144,14 @@
         <v>59603</v>
       </c>
       <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
         <v>206</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2161,16 +2159,14 @@
         <v>59604</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2394,13 +2390,13 @@
         <v>62851</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,13 +2404,13 @@
         <v>62852</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2422,16 +2418,16 @@
         <v>62854</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2439,13 +2435,13 @@
         <v>59716</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2453,13 +2449,13 @@
         <v>59718</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2467,16 +2463,16 @@
         <v>59720</v>
       </c>
       <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" t="s">
         <v>184</v>
-      </c>
-      <c r="C8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2484,13 +2480,13 @@
         <v>53394</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2498,13 +2494,13 @@
         <v>53395</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2512,13 +2508,13 @@
         <v>59542</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2526,13 +2522,13 @@
         <v>59545</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2540,16 +2536,16 @@
         <v>59551</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>181</v>
-      </c>
       <c r="E13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,19 +2553,19 @@
         <v>60684</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="E15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710608BC-3C38-400C-AE3A-2BF9175345D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7419C-5602-4692-8995-7B13D071CBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2110,7 +2110,7 @@
         <v>60909</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>212</v>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7419C-5602-4692-8995-7B13D071CBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981238D1-0E67-4561-88B1-E44F0596D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1956,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D712D367-B012-46C8-B72F-52F04E777493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342AD427-B533-42ED-8CB3-8E3F31DE1C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -730,22 +730,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -754,12 +745,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1088,58 +1073,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>53766</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>53799</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1152,14 +1137,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>53800</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1169,14 +1154,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>53801</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1186,14 +1171,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>53802</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1203,14 +1188,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>53803</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1220,14 +1205,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>53804</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1237,14 +1222,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>53805</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1254,62 +1239,62 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>53806</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>53807</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>53808</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>53809</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1318,15 +1303,15 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>53810</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1335,11 +1320,11 @@
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>53811</v>
       </c>
@@ -1356,11 +1341,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>53812</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1369,49 +1354,49 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>53813</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>53814</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>53816</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1420,334 +1405,334 @@
       <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>53817</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>53818</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>53819</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>53820</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>53821</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>53822</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>53823</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>53824</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>53825</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>53826</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>53827</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>53828</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>53829</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>53830</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>53831</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>53832</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>53833</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>53834</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>53835</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>53836</v>
       </c>
@@ -1764,7 +1749,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>53837</v>
       </c>
@@ -1781,42 +1766,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>53840</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>53842</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>59833</v>
       </c>
       <c r="B43" t="s">
@@ -1832,93 +1817,93 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>59841</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>62080</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>60688</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>166</v>
       </c>
       <c r="E46" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>60780</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>59692</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>209</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>59693</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1928,14 +1913,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>59695</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>208</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -1945,20 +1930,20 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>59696</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>211</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1975,44 +1960,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>60532</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2022,139 +2007,139 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>60902</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>176</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>60903</v>
       </c>
       <c r="B4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>60904</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>60905</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>60906</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>60908</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>60909</v>
       </c>
       <c r="B9" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>60910</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2168,84 +2153,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>59007</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>59006</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>59305</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2263,59 +2248,58 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>61353</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>60848</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2333,34 +2317,34 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>62551</v>
       </c>
       <c r="B2" t="s">
@@ -2370,11 +2354,11 @@
         <v>174</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>62851</v>
       </c>
@@ -2388,7 +2372,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>62852</v>
       </c>
@@ -2402,7 +2386,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>62854</v>
       </c>
@@ -2412,14 +2396,14 @@
       <c r="C5" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>59716</v>
       </c>
@@ -2433,7 +2417,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>59718</v>
       </c>
@@ -2447,7 +2431,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>59720</v>
       </c>
@@ -2457,14 +2441,14 @@
       <c r="C8" t="s">
         <v>185</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>53394</v>
       </c>
@@ -2478,21 +2462,21 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>53395</v>
       </c>
       <c r="B10" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>200</v>
       </c>
       <c r="E10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>59542</v>
       </c>
@@ -2506,7 +2490,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>59545</v>
       </c>
@@ -2520,7 +2504,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>59551</v>
       </c>
@@ -2530,7 +2514,7 @@
       <c r="C13" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E13" t="s">
@@ -2551,71 +2535,71 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>61353</v>
       </c>
       <c r="B2" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>60848</v>
       </c>
       <c r="B3" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="1"/>
       <c r="E3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>60851</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="4"/>
       <c r="E4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>60852</v>
       </c>
@@ -2623,7 +2607,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>60854</v>
       </c>
@@ -2631,7 +2615,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>60955</v>
       </c>
@@ -2639,7 +2623,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>61946</v>
       </c>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342AD427-B533-42ED-8CB3-8E3F31DE1C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981238D1-0E67-4561-88B1-E44F0596D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -18,14 +18,12 @@
     <sheet name="CASHOUT" sheetId="9" r:id="rId3"/>
     <sheet name="INTEROPERBILIDAD" sheetId="12" r:id="rId4"/>
     <sheet name="GETs" sheetId="13" r:id="rId5"/>
-    <sheet name="INTEROPERBILIDAD 3" sheetId="10" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CASHOUT!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CONTRACARGOQR!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">GETs!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">INTEROPERBILIDAD!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'INTEROPERBILIDAD 3'!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="214">
   <si>
     <t>Parametros</t>
   </si>
@@ -511,18 +509,6 @@
     <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Datos POST [PSP]/QRIntencionDePago</t>
   </si>
   <si>
-    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Envio POST [PSP]/QRIntencionDePago</t>
-  </si>
-  <si>
-    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Respuesta QRIntenciondePago</t>
-  </si>
-  <si>
-    <t>Interoperable- MVP1 - QRIntencionPago - Caso OK - Datos Respuesta</t>
-  </si>
-  <si>
-    <t>QRDebin - MVP1 - QRIntencionPago - Caso OK - Datos Respuesta</t>
-  </si>
-  <si>
     <t>QRDebin- MVP1 - QRIntencionPago - Caso OK - Envio POST [PSP]/QRIntencionDePago</t>
   </si>
   <si>
@@ -541,24 +527,15 @@
     <t>"operacion":{"detalle":{"concepto":"VAR","importe":1000}}}</t>
   </si>
   <si>
-    <t>Split - Interoperable - Coelsa Aceptador</t>
-  </si>
-  <si>
     <t>"endpoint":"debin","id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
   </si>
   <si>
     <t>QRDebin-&gt;aviso*</t>
   </si>
   <si>
-    <t>PaymentValidation-&gt;Payment-&gt;aviso*</t>
-  </si>
-  <si>
     <t>PaymentValidation-&gt;Payment</t>
   </si>
   <si>
-    <t>"payer":{"identification_number":"20000000222","document":{"type":"DNI","number":"00000022"},"account":{"cbu":"9981522200000000000192","wallet":{"name":"PAYPAUL","cuit":"20000000346"}},"acquirer":{"reverse_domain":"com.mercadolibre","cuit":"30703088534"},"merchant":{"cuit":"20374372689","account":{"cbu":"0168888100008273570145","cvu":"0000084000000000000024"}}}}|"payer":{"identification_number":"20000000222","document":{"type":"DNI","number":"00000022"},"account":{"cbu":"9981522200000000000192","wallet":{"name":"PAYPAUL","cuit":"20000000346"}},"acquirer":{"reverse_domain":"com.mercadolibre","cuit":"30703088534"},"merchant":{"cuit":"20374372689","account":{"cbu":"0168888100008273570145","cvu":"0000084000000000000024"}}}}|"id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
-  </si>
-  <si>
     <t>PaymentValidation-&gt;aviso*</t>
   </si>
   <si>
@@ -577,15 +554,6 @@
     <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1000}}}</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"00000000000111111111111"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1000},"qr_id_trx":"00000000000111111111111"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}},"objeto":{"ori_trx_id":" "}}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}}}|"operacion_original":{"detalle":{"importe":1}}}|"operacion_original":{"detalle":{"importe":1}}}</t>
   </si>
   <si>
@@ -683,6 +651,39 @@
   </si>
   <si>
     <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Valido</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;QRSolicitudContraCargo*-&gt;aviso*</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1000}}}|"id":"debin.id","aviso":"QROperacionFinalizada","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":250}}}|"id":"debin.id","aviso":"QROperacionFinalizada","producto":"responder"</t>
+  </si>
+  <si>
+    <t>POST [epBilletera]/QROperacionFinalizada - 5705 DEVOLUCION TOTAL (Coelsa - Coelsa)</t>
+  </si>
+  <si>
+    <t>POST [epBilletera]/QROperacionFinalizada - 5708 DEVOLUCION PARCIAL (Coelsa-Coelsa)</t>
+  </si>
+  <si>
+    <t>"id":"4XJ8G7V95JLW86R9EMPYR0"</t>
+  </si>
+  <si>
+    <t>GET Debin4: Propiedad ori_trx_id - Coelsa Coelsa - OK</t>
+  </si>
+  <si>
+    <t>GET Debin4: Propiedad ori_trx_id - Coelsa Billetera - OK</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"00000000000111111111111"},"objeto":{"ori_trx_id":"9223000000000066307"},"sql":"off"</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":1000},"qr_id_trx":"00000000000111111111111"},"objeto":{"ori_trx_id":"9223000000000066307"},"sql":"off"</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"Test%20Auto%2014594309"},"objeto":{"ori_trx_id":" "}},"sql":"off"</t>
   </si>
 </sst>
 </file>
@@ -730,13 +731,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -745,6 +755,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -764,27 +780,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1073,58 +1069,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
         <v>53766</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>53799</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1137,14 +1133,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>53800</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1154,14 +1150,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>53801</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1171,14 +1167,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>53802</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1188,14 +1184,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>53803</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1205,14 +1201,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>53804</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1222,14 +1218,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53805</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1239,62 +1235,62 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>53806</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>53807</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>53808</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>53809</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1303,15 +1299,15 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>53810</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1320,11 +1316,11 @@
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53811</v>
       </c>
@@ -1341,11 +1337,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>53812</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1354,49 +1350,49 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>53813</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>53814</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>53816</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1405,334 +1401,334 @@
       <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>53817</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>53818</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>53819</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>53820</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>53821</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>53822</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>53823</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>53824</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>53825</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>53826</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>53827</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>53828</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>53829</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>53830</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>53831</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>53832</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>53833</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>53834</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>53835</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>53836</v>
       </c>
@@ -1749,7 +1745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53837</v>
       </c>
@@ -1766,42 +1762,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>53840</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>53842</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>59833</v>
       </c>
       <c r="B43" t="s">
@@ -1817,139 +1813,139 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>59841</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>62080</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>164</v>
+      <c r="C45" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>60688</v>
       </c>
-      <c r="B46" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>166</v>
+      <c r="B46" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>60780</v>
       </c>
-      <c r="B47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="B47" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>59692</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>209</v>
+      <c r="B48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A49">
+        <v>194</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>59693</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>210</v>
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>59695</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>208</v>
+      <c r="B50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>59696</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>211</v>
+      <c r="B51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E51" t="s">
-        <v>212</v>
+      <c r="E51" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E46:E48 E51">
-    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1958,47 +1954,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60532</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>175</v>
+      <c r="C2" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>118</v>
@@ -2007,140 +2003,170 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>60902</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>176</v>
+      <c r="C3" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>60903</v>
       </c>
       <c r="B4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>175</v>
+      <c r="C4" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>60904</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>60905</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>60906</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>60908</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>177</v>
+        <v>138</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>60909</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>178</v>
+        <v>138</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>60910</v>
       </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="12" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>59603</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>59604</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2153,84 +2179,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>59007</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>59006</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>59305</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="9" t="s">
         <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2245,61 +2271,62 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>61353</v>
       </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="12" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
         <v>60848</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="B3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2311,334 +2338,238 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>62551</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E2" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62851</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>62852</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>62854</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>59716</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59718</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59720</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53394</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53395</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59542</v>
       </c>
       <c r="B11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59545</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>59551</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60684</v>
+      </c>
+      <c r="B14" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="E15" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF729BDF-5E3F-45D9-877E-42F3FAFCFF40}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
-    <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>61353</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>60848</v>
-      </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>60851</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="E4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>60852</v>
-      </c>
-      <c r="E5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>60854</v>
-      </c>
-      <c r="E6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>60955</v>
-      </c>
-      <c r="E7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>61946</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="E3:E7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981238D1-0E67-4561-88B1-E44F0596D565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B253320F-A185-40F3-9232-F938394D20F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -731,22 +731,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -755,12 +746,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -775,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,54 +1061,54 @@
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>53766</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>53799</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1133,14 +1121,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>53800</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1150,14 +1138,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>53801</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1167,14 +1155,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>53802</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1184,14 +1172,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>53803</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1201,14 +1189,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>53804</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1218,14 +1206,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>53805</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1235,62 +1223,62 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>53806</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>132</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>53807</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>53808</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>53809</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1299,15 +1287,15 @@
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>53810</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1316,11 +1304,11 @@
       <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>53811</v>
       </c>
@@ -1337,11 +1325,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>53812</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1350,49 +1338,49 @@
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>53813</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>53814</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>53816</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1401,334 +1389,334 @@
       <c r="D19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>53817</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>53818</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>53819</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>53820</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>53821</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>53822</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
         <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>53823</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>53824</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>53825</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>53826</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>53827</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>53828</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>53829</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>53830</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>53831</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="7" t="s">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>53832</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>53833</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>53834</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>53835</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>53836</v>
       </c>
@@ -1745,7 +1733,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>53837</v>
       </c>
@@ -1762,42 +1750,42 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>53840</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>53842</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="6" t="s">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>59833</v>
       </c>
       <c r="B43" t="s">
@@ -1813,93 +1801,93 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>59841</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>62080</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>60688</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E46" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>60780</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>59692</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>199</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>59693</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>200</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -1909,14 +1897,14 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>59695</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>198</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -1926,20 +1914,20 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>59696</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>201</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1956,44 +1944,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>60532</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2003,150 +1991,150 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>60902</v>
       </c>
       <c r="B3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>60903</v>
       </c>
       <c r="B4" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>60904</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>60905</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>60906</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>60908</v>
       </c>
       <c r="B8" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>211</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>60909</v>
       </c>
       <c r="B9" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>60910</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>59603</v>
       </c>
       <c r="B11" t="s">
         <v>203</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D11" s="2"/>
@@ -2154,14 +2142,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>59604</v>
       </c>
       <c r="B12" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>205</v>
       </c>
       <c r="D12" s="2"/>
@@ -2180,83 +2168,83 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>59007</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>59006</v>
       </c>
       <c r="B3" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>59305</v>
       </c>
       <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="5" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2274,59 +2262,58 @@
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>61353</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>60848</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2344,34 +2331,34 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>62551</v>
       </c>
       <c r="B2" t="s">
@@ -2381,11 +2368,11 @@
         <v>167</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>62851</v>
       </c>
@@ -2399,7 +2386,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>62852</v>
       </c>
@@ -2413,7 +2400,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>62854</v>
       </c>
@@ -2423,14 +2410,14 @@
       <c r="C5" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>59716</v>
       </c>
@@ -2444,7 +2431,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>59718</v>
       </c>
@@ -2458,7 +2445,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>59720</v>
       </c>
@@ -2468,14 +2455,14 @@
       <c r="C8" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>53394</v>
       </c>
@@ -2489,21 +2476,21 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>53395</v>
       </c>
       <c r="B10" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>190</v>
       </c>
       <c r="E10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>59542</v>
       </c>
@@ -2517,7 +2504,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>59545</v>
       </c>
@@ -2531,7 +2518,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>59551</v>
       </c>
@@ -2541,14 +2528,14 @@
       <c r="C13" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>60684</v>
       </c>
@@ -2562,7 +2549,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="E15" t="s">
         <v>210</v>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B253320F-A185-40F3-9232-F938394D20F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6FBCE8-9202-45C0-BC45-90AED18C6803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
     <t>"operacion_original":{"detalle":{"importe":1000},"qr_id_trx":"00000000000111111111111"},"objeto":{"ori_trx_id":"9223000000000066307"},"sql":"off"</t>
   </si>
   <si>
-    <t>"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"Test%20Auto%2014594309"},"objeto":{"ori_trx_id":" "}},"sql":"off"</t>
+    <t>"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"Test%20Auto%2014594309"},"objeto":{"ori_trx_id":" "},"sql":"off"</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -760,9 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1944,8 +1941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1981,7 +1978,7 @@
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="4" t="s">
         <v>168</v>
       </c>
       <c r="D2" s="2" t="s">

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B253320F-A185-40F3-9232-F938394D20F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB19F904-FFAB-4C92-9A14-6FF148649610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="223">
   <si>
     <t>Parametros</t>
   </si>
@@ -407,9 +407,6 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7541","descripcion":"PERSISTIDO"}}}</t>
   </si>
   <si>
-    <t>"objeto":{"tipo":"CASHOUT"},"credito":{"cuit":"20956746117","banco":"000","sucursal":"0213","cuenta":{"cbu":"0000213699900070000000"},"titular":""},"debito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
-  </si>
-  <si>
     <t>CashOut*</t>
   </si>
   <si>
@@ -419,18 +416,12 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta":{"codigo":"7552","descripcion":"O7L8GYKNXRV5MKONMPRZ50 - ID DE OPERACION  EXISTENTE"}}}</t>
   </si>
   <si>
-    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1141},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"998","sucursal":"4788","cuenta":{"cbu":"9984788700000000000420"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"moneda":"032","importe":10}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">CASHOUT - Validación ori_trx_id - CVU &gt; CVU </t>
   </si>
   <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"8PDX4OGNYJ0P80VN0L6EY5 - ID DE OPERACION  EXISTENTE"}}}</t>
   </si>
   <si>
-    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"000","sucursal":"8851","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"},"titular":"PRUEBAS COELSA CASHOUT"},"importe":{"importe":10}}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{ "tiempo_expiracion": 0}}</t>
   </si>
   <si>
@@ -683,7 +674,43 @@
     <t>"operacion_original":{"detalle":{"importe":1000},"qr_id_trx":"00000000000111111111111"},"objeto":{"ori_trx_id":"9223000000000066307"},"sql":"off"</t>
   </si>
   <si>
-    <t>"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"Test%20Auto%2014594309"},"objeto":{"ori_trx_id":" "}},"sql":"off"</t>
+    <t>"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"Test%20Auto%2014594309"},"objeto":{"ori_trx_id":" "},"sql":"off"</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation-&gt;Refund</t>
+  </si>
+  <si>
+    <t>{"StatusCode":201,"Mensaje":{"transaction": {"code":"APPROVED","description":"REFUND REALIZADO CORRECTAMENTE"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera Reverso - Circuito Completo - OK</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT"},"credito":{"cuit":"20956746117","banco":"000","sucursal":"0213","cuenta":{"cbu":"0000213699900070000000"},"titular":""},"debito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"}},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"000","sucursal":"8851","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"}},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1141},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"998","sucursal":"4788","cuenta":{"cbu":"9984788700000000000420"}},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>PaymentValidation</t>
+  </si>
+  <si>
+    <t>"producto":"paymentvalidation"|"producto":"payment"</t>
+  </si>
+  <si>
+    <t>producto:"paymentvalidation"</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"validation_status":{"status":"PASS"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payments/validations - OK</t>
   </si>
 </sst>
 </file>
@@ -1057,20 +1084,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>53766</v>
       </c>
@@ -1104,7 +1131,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>53799</v>
       </c>
@@ -1121,7 +1148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53800</v>
       </c>
@@ -1138,7 +1165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>53801</v>
       </c>
@@ -1146,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1155,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53802</v>
       </c>
@@ -1163,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1172,7 +1199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>53803</v>
       </c>
@@ -1180,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1189,7 +1216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>53804</v>
       </c>
@@ -1197,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1206,7 +1233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53805</v>
       </c>
@@ -1223,7 +1250,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53806</v>
       </c>
@@ -1231,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1240,7 +1267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53807</v>
       </c>
@@ -1248,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
@@ -1257,7 +1284,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>53808</v>
       </c>
@@ -1265,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -1274,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>53809</v>
       </c>
@@ -1291,7 +1318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>53810</v>
       </c>
@@ -1308,7 +1335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53811</v>
       </c>
@@ -1325,7 +1352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>53812</v>
       </c>
@@ -1342,7 +1369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>53813</v>
       </c>
@@ -1359,7 +1386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>53814</v>
       </c>
@@ -1376,7 +1403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>53816</v>
       </c>
@@ -1393,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>53817</v>
       </c>
@@ -1410,7 +1437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>53818</v>
       </c>
@@ -1427,7 +1454,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>53819</v>
       </c>
@@ -1444,7 +1471,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>53820</v>
       </c>
@@ -1461,7 +1488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>53821</v>
       </c>
@@ -1478,7 +1505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>53822</v>
       </c>
@@ -1495,7 +1522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>53823</v>
       </c>
@@ -1512,7 +1539,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>53824</v>
       </c>
@@ -1529,7 +1556,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>53825</v>
       </c>
@@ -1546,7 +1573,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>53826</v>
       </c>
@@ -1563,7 +1590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>53827</v>
       </c>
@@ -1571,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>51</v>
@@ -1580,7 +1607,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>53828</v>
       </c>
@@ -1597,7 +1624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>53829</v>
       </c>
@@ -1614,7 +1641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>53830</v>
       </c>
@@ -1631,7 +1658,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>53831</v>
       </c>
@@ -1648,7 +1675,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>53832</v>
       </c>
@@ -1665,7 +1692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>53833</v>
       </c>
@@ -1682,7 +1709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>53834</v>
       </c>
@@ -1699,7 +1726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>53835</v>
       </c>
@@ -1716,7 +1743,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>53836</v>
       </c>
@@ -1733,7 +1760,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53837</v>
       </c>
@@ -1750,7 +1777,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>53840</v>
       </c>
@@ -1767,7 +1794,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53842</v>
       </c>
@@ -1784,7 +1811,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>59833</v>
       </c>
@@ -1801,7 +1828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>59841</v>
       </c>
@@ -1818,7 +1845,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>62080</v>
       </c>
@@ -1826,44 +1853,44 @@
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>60688</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>60780</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>59692</v>
       </c>
@@ -1871,16 +1898,16 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
         <v>194</v>
       </c>
-      <c r="E48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>59693</v>
       </c>
@@ -1888,16 +1915,16 @@
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" t="s">
         <v>193</v>
       </c>
-      <c r="E49" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>59695</v>
       </c>
@@ -1905,16 +1932,16 @@
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>59696</v>
       </c>
@@ -1922,13 +1949,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1944,20 +1971,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1974,7 +2001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60532</v>
       </c>
@@ -1982,7 +2009,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>118</v>
@@ -1991,7 +2018,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60902</v>
       </c>
@@ -1999,16 +2026,16 @@
         <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60903</v>
       </c>
@@ -2016,145 +2043,145 @@
         <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>60904</v>
       </c>
       <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60905</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>60906</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60908</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60909</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60910</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59603</v>
       </c>
       <c r="B11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59604</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2168,19 +2195,19 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2197,49 +2224,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>59007</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>59006</v>
       </c>
       <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59305</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>121</v>
+        <v>215</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>120</v>
@@ -2256,22 +2283,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27905B-1E87-40DF-B6B4-452FD9A02DC6}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2288,33 +2315,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>61353</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>160</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>60848</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>59844</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>59930</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2327,20 +2391,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2357,202 +2421,202 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>62551</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62851</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>62852</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>62854</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="E5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>59716</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59718</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59720</v>
       </c>
       <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" t="s">
         <v>181</v>
       </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53394</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53395</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59542</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59545</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>59551</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="E13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60684</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="E15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB19F904-FFAB-4C92-9A14-6FF148649610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776C8D93-DF96-40EF-81E8-CBEA2D7E51FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -413,15 +413,9 @@
     <t>CASHOUT - Validación ori_trx_id - CBU &gt; CBU</t>
   </si>
   <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta":{"codigo":"7552","descripcion":"O7L8GYKNXRV5MKONMPRZ50 - ID DE OPERACION  EXISTENTE"}}}</t>
-  </si>
-  <si>
     <t xml:space="preserve">CASHOUT - Validación ori_trx_id - CVU &gt; CVU </t>
   </si>
   <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"8PDX4OGNYJ0P80VN0L6EY5 - ID DE OPERACION  EXISTENTE"}}}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{ "tiempo_expiracion": 0}}</t>
   </si>
   <si>
@@ -692,25 +686,31 @@
     <t>"objeto":{"tipo":"CASHOUT"},"credito":{"cuit":"20956746117","banco":"000","sucursal":"0213","cuenta":{"cbu":"0000213699900070000000"},"titular":""},"debito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"}},"importe":{"importe":10}}</t>
   </si>
   <si>
-    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"000","sucursal":"8851","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"}},"importe":{"importe":10}}</t>
-  </si>
-  <si>
-    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1141},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"998","sucursal":"4788","cuenta":{"cbu":"9984788700000000000420"}},"importe":{"importe":10}}</t>
-  </si>
-  <si>
     <t>PaymentValidation</t>
   </si>
   <si>
     <t>"producto":"paymentvalidation"|"producto":"payment"</t>
   </si>
   <si>
-    <t>producto:"paymentvalidation"</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"validation_status":{"status":"PASS"}}}</t>
   </si>
   <si>
     <t>IdBilletera BCRA - Coelsa Aceptador - Payments/validations - OK</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta":{"codigo":"7552","descripcion":"8PDX4OGNYJ0PKMYN0L6EY5 - ID DE OPERACION  EXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>"objeto":{"tipo":"CASHOUT","ori_trx_id":1126},"credito":{"cuit":"20000014479","banco":"000","sucursal":"0004","cuenta":{"cbu":"0000004800000000014485"},"titular":""},"debito":{"cuit":"27956331957","banco":"000","sucursal":"0161","cuenta":{"cbu":"0000161400000000004309"}},"importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"KLOEJWV9J0M3VO32QMD0GZ - ID DE OPERACION  EXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>"producto":"paymentvalidation"</t>
+  </si>
+  <si>
+    <t>"objeto":{"ori_trx_id":1141},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"998","sucursal":"4788","cuenta":{"cbu":"9984788700000000000420"},"titular":""},"concepto":"VAR","importe":{"importe":10}}</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1207,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1224,7 +1224,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1258,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1275,7 +1275,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -1598,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>51</v>
@@ -1853,13 +1853,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,13 +1867,13 @@
         <v>60688</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,13 +1881,13 @@
         <v>60780</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1898,13 +1898,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1915,13 +1915,13 @@
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1932,13 +1932,13 @@
         <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1949,13 +1949,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2009,7 @@
         <v>117</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>118</v>
@@ -2026,13 +2026,13 @@
         <v>117</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2043,13 +2043,13 @@
         <v>117</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2057,16 +2057,16 @@
         <v>60904</v>
       </c>
       <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" t="s">
         <v>136</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2074,16 +2074,16 @@
         <v>60905</v>
       </c>
       <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2091,16 +2091,16 @@
         <v>60906</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2108,16 +2108,16 @@
         <v>60908</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2125,16 +2125,16 @@
         <v>60909</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2142,16 +2142,16 @@
         <v>60910</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2159,14 +2159,14 @@
         <v>59603</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2174,14 +2174,14 @@
         <v>59604</v>
       </c>
       <c r="B12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2194,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,13 +2232,13 @@
         <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2249,10 +2249,10 @@
         <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>122</v>
@@ -2266,7 +2266,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>120</v>
@@ -2320,16 +2320,16 @@
         <v>61353</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2337,14 +2337,14 @@
         <v>60848</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2352,16 +2352,16 @@
         <v>59844</v>
       </c>
       <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2369,16 +2369,16 @@
         <v>59930</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2426,14 +2426,14 @@
         <v>62551</v>
       </c>
       <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
-      </c>
-      <c r="C2" t="s">
-        <v>164</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2441,13 +2441,13 @@
         <v>62851</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,13 +2455,13 @@
         <v>62852</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2469,16 +2469,16 @@
         <v>62854</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2486,13 +2486,13 @@
         <v>59716</v>
       </c>
       <c r="B6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
         <v>177</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2500,13 +2500,13 @@
         <v>59718</v>
       </c>
       <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
         <v>178</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2514,16 +2514,16 @@
         <v>59720</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2531,13 +2531,13 @@
         <v>53394</v>
       </c>
       <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="s">
         <v>182</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2545,13 +2545,13 @@
         <v>53395</v>
       </c>
       <c r="B10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2559,13 +2559,13 @@
         <v>59542</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2573,13 +2573,13 @@
         <v>59545</v>
       </c>
       <c r="B12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2587,16 +2587,16 @@
         <v>59551</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,19 +2604,19 @@
         <v>60684</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776C8D93-DF96-40EF-81E8-CBEA2D7E51FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5B645-D7DD-4A16-A558-38B82C43E24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="238">
   <si>
     <t>Parametros</t>
   </si>
@@ -680,18 +680,12 @@
     <t>IdBilletera BCRA - Coelsa Billetera Reverso - Circuito Completo - OK</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}</t>
-  </si>
-  <si>
     <t>"objeto":{"tipo":"CASHOUT"},"credito":{"cuit":"20956746117","banco":"000","sucursal":"0213","cuenta":{"cbu":"0000213699900070000000"},"titular":""},"debito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"}},"importe":{"importe":10}}</t>
   </si>
   <si>
     <t>PaymentValidation</t>
   </si>
   <si>
-    <t>"producto":"paymentvalidation"|"producto":"payment"</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"validation_status":{"status":"PASS"}}}</t>
   </si>
   <si>
@@ -707,10 +701,61 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7552","descripcion":"KLOEJWV9J0M3VO32QMD0GZ - ID DE OPERACION  EXISTENTE"}}}</t>
   </si>
   <si>
-    <t>"producto":"paymentvalidation"</t>
-  </si>
-  <si>
     <t>"objeto":{"ori_trx_id":1141},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"998","sucursal":"4788","cuenta":{"cbu":"9984788700000000000420"},"titular":""},"concepto":"VAR","importe":{"importe":10}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"producto":"refundvalidation"|"producto":"refund"</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera Reverso - Refund/validations - OK</t>
+  </si>
+  <si>
+    <t>RefundValidation</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Refunds - OK</t>
+  </si>
+  <si>
+    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5602","descripcion":"CONTRA-CARGO - INICIADO"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment/Validations - bcra_id - menor a 5 caracteres</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"0000"}}}</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"000006"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment/Validations - bcra_id - mayor a 5 caracteres</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"a0b06"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment/Validations - bcra_id - alfanumérico</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":" "}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment/Validations - bcra_id - vacío/null</t>
+  </si>
+  <si>
+    <t>{"StatusCode":400,"Mensaje":{"errors": [{"code":"Error","description":"The field BcraId must be a string with a minimum length of 5 and a maximum length of 5."}]}}</t>
+  </si>
+  <si>
+    <t>PaymentValidation*</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":400,"Mensaje":{"errors": [{"code":"Error","description":"bcra_id must be numeric"}]}}</t>
   </si>
 </sst>
 </file>
@@ -726,7 +771,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,6 +790,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -758,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -785,10 +836,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1971,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2076,7 @@
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2194,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2232,10 +2300,10 @@
         <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>123</v>
@@ -2249,10 +2317,10 @@
         <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>122</v>
@@ -2266,7 +2334,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>120</v>
@@ -2283,19 +2351,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27905B-1E87-40DF-B6B4-452FD9A02DC6}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,9 +2390,6 @@
       <c r="B2" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="D2" s="2" t="s">
         <v>148</v>
       </c>
@@ -2333,21 +2398,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="11">
         <v>60848</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59844</v>
       </c>
@@ -2355,7 +2420,7 @@
         <v>209</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>210</v>
@@ -2364,21 +2429,117 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>59930</v>
       </c>
       <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59950</v>
+      </c>
+      <c r="B6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" t="s">
-        <v>217</v>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>60040</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>59953</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>59956</v>
+      </c>
+      <c r="B9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>59957</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>59986</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5B645-D7DD-4A16-A558-38B82C43E24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1DB3D-73A5-4173-8B97-8B353647E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,17 @@
     <sheet name="QR" sheetId="7" r:id="rId1"/>
     <sheet name="CONTRACARGOQR" sheetId="8" r:id="rId2"/>
     <sheet name="CASHOUT" sheetId="9" r:id="rId3"/>
-    <sheet name="INTEROPERBILIDAD" sheetId="12" r:id="rId4"/>
-    <sheet name="GETs" sheetId="13" r:id="rId5"/>
+    <sheet name="PAYMENTS" sheetId="12" r:id="rId4"/>
+    <sheet name="REFUNDS" sheetId="14" r:id="rId5"/>
+    <sheet name="GETs" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CASHOUT!$A$1:$E$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CONTRACARGOQR!$A$1:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">GETs!$A$1:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">INTEROPERBILIDAD!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">GETs!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PAYMENTS!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">REFUNDS!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="266">
   <si>
     <t>Parametros</t>
   </si>
@@ -704,9 +706,6 @@
     <t>"objeto":{"ori_trx_id":1141},"credito":{"cuit":"20333048494","banco":"998","sucursal":"8851","cuenta":{"cbu":"9988851800000000000628"},"titular":""},"debito":{"cuit":"20000009963","banco":"998","sucursal":"4788","cuenta":{"cbu":"9984788700000000000420"},"titular":""},"concepto":"VAR","importe":{"importe":10}}</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"producto":"refundvalidation"|"producto":"refund"</t>
-  </si>
-  <si>
     <t>IdBilletera BCRA - Coelsa Billetera Reverso - Refund/validations - OK</t>
   </si>
   <si>
@@ -756,6 +755,93 @@
   </si>
   <si>
     <t>{"StatusCode":400,"Mensaje":{"errors": [{"code":"Error","description":"bcra_id must be numeric"}]}}</t>
+  </si>
+  <si>
+    <t>PaymentValidation*-&gt;Payment*</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment - bcra_id - menor a 5 caracteres</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment - bcra_id - mayor a 5 caracteres</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment - bcra_id - alfanumérico</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"01010"}}}|"payer":{"wallet":{"bcra_id":"0000"}}}</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"01010"}}}|"payer":{"wallet":{"bcra_id":"000006"}}}</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"01010"}}}|"payer":{"wallet":{"bcra_id":"a0b06"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment - bcra_id - vacío/null</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"01010"}}}|"payer":{"wallet":{"bcra_id":" "}}}</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"01010"}}}|"payer":{"wallet":{"bcra_id":"05050"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":201,"Mensaje":{"transaction": {"code":"REJECTED","description":"DATOS_INCONSISTENTES"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador  - Circuito Completo - Distinto bcra_id enviado en payments/validations y payments</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation*</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"0005"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - menor a 5 caracteres</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"000505"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - mayor a 5 caracteres</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - alfanumérico</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"a0b06"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - vacío/null</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":" "}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - menor a 5 caracteres</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation*-&gt;Refund*</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"05050"}}}|"payer":{"wallet":{"bcra_id":"0505"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"05050"}}}|"payer":{"wallet":{"bcra_id":"050505"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - mayor a 5 caracteres</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - alfanumérico</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - vacío/null</t>
   </si>
 </sst>
 </file>
@@ -2351,16 +2437,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27905B-1E87-40DF-B6B4-452FD9A02DC6}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" customWidth="1"/>
     <col min="5" max="5" width="81.140625" customWidth="1"/>
@@ -2412,134 +2498,188 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>59844</v>
+        <v>59930</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>59930</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>60040</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>59950</v>
+        <v>59953</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
-        <v>60040</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>223</v>
+      <c r="A7">
+        <v>59956</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>59953</v>
+        <v>59957</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>59986</v>
+      </c>
+      <c r="B9" t="s">
         <v>234</v>
       </c>
-      <c r="E8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>59956</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" t="s">
-        <v>228</v>
+      <c r="C9" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" t="s">
-        <v>229</v>
+        <v>233</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>59957</v>
+        <v>59970</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>59971</v>
+      </c>
+      <c r="B11" t="s">
         <v>237</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>59986</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>232</v>
+      <c r="C11" t="s">
+        <v>242</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="11" t="s">
         <v>233</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59984</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>59987</v>
+      </c>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2549,6 +2689,213 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA3C39-F395-444B-9CEE-CFC2FA04FF9A}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="100" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>59844</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>59950</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>59991</v>
+      </c>
+      <c r="B4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>59993</v>
+      </c>
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59994</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>59997</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>59998</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>59999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>60002</v>
+      </c>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>60003</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
   <dimension ref="A1:E15"/>
   <sheetViews>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F5B645-D7DD-4A16-A558-38B82C43E24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5C7E01-3BA8-4BB1-B8E9-9276D43F40D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -834,19 +834,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1156,16 +1143,16 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1182,7 +1169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>53766</v>
       </c>
@@ -1199,7 +1186,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>53799</v>
       </c>
@@ -1216,7 +1203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>53800</v>
       </c>
@@ -1233,7 +1220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>53801</v>
       </c>
@@ -1250,7 +1237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>53802</v>
       </c>
@@ -1267,7 +1254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>53803</v>
       </c>
@@ -1284,7 +1271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>53804</v>
       </c>
@@ -1301,7 +1288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>53805</v>
       </c>
@@ -1318,7 +1305,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>53806</v>
       </c>
@@ -1335,7 +1322,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>53807</v>
       </c>
@@ -1352,7 +1339,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>53808</v>
       </c>
@@ -1369,7 +1356,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>53809</v>
       </c>
@@ -1386,7 +1373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>53810</v>
       </c>
@@ -1403,7 +1390,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>53811</v>
       </c>
@@ -1420,7 +1407,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>53812</v>
       </c>
@@ -1437,7 +1424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>53813</v>
       </c>
@@ -1454,7 +1441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>53814</v>
       </c>
@@ -1471,7 +1458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>53816</v>
       </c>
@@ -1488,7 +1475,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>53817</v>
       </c>
@@ -1505,7 +1492,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>53818</v>
       </c>
@@ -1522,7 +1509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>53819</v>
       </c>
@@ -1539,7 +1526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>53820</v>
       </c>
@@ -1556,7 +1543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>53821</v>
       </c>
@@ -1573,7 +1560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>53822</v>
       </c>
@@ -1590,7 +1577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>53823</v>
       </c>
@@ -1607,7 +1594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>53824</v>
       </c>
@@ -1624,7 +1611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>53825</v>
       </c>
@@ -1641,7 +1628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>53826</v>
       </c>
@@ -1658,7 +1645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>53827</v>
       </c>
@@ -1675,7 +1662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>53828</v>
       </c>
@@ -1692,7 +1679,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>53829</v>
       </c>
@@ -1709,7 +1696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>53830</v>
       </c>
@@ -1726,7 +1713,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>53831</v>
       </c>
@@ -1743,7 +1730,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>53832</v>
       </c>
@@ -1760,7 +1747,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>53833</v>
       </c>
@@ -1777,7 +1764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>53834</v>
       </c>
@@ -1794,7 +1781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>53835</v>
       </c>
@@ -1811,7 +1798,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>53836</v>
       </c>
@@ -1828,7 +1815,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>53837</v>
       </c>
@@ -1845,7 +1832,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>53840</v>
       </c>
@@ -1862,7 +1849,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>53842</v>
       </c>
@@ -1879,7 +1866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>59833</v>
       </c>
@@ -1896,7 +1883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>59841</v>
       </c>
@@ -1913,7 +1900,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>62080</v>
       </c>
@@ -1930,7 +1917,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>60688</v>
       </c>
@@ -1944,7 +1931,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>60780</v>
       </c>
@@ -1958,7 +1945,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>59692</v>
       </c>
@@ -1975,7 +1962,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>59693</v>
       </c>
@@ -1992,7 +1979,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>59695</v>
       </c>
@@ -2009,7 +1996,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>59696</v>
       </c>
@@ -2043,16 +2030,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2069,14 +2056,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>60532</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2086,7 +2073,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>60902</v>
       </c>
@@ -2103,7 +2090,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>60903</v>
       </c>
@@ -2120,7 +2107,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>60904</v>
       </c>
@@ -2137,7 +2124,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>60905</v>
       </c>
@@ -2154,7 +2141,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>60906</v>
       </c>
@@ -2171,7 +2158,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60908</v>
       </c>
@@ -2188,7 +2175,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>60909</v>
       </c>
@@ -2205,7 +2192,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>60910</v>
       </c>
@@ -2222,7 +2209,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>59603</v>
       </c>
@@ -2237,7 +2224,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>59604</v>
       </c>
@@ -2266,16 +2253,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>59007</v>
       </c>
@@ -2309,7 +2296,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>59006</v>
       </c>
@@ -2326,7 +2313,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>59305</v>
       </c>
@@ -2353,20 +2340,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27905B-1E87-40DF-B6B4-452FD9A02DC6}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="53.26953125" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="81.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2383,7 +2370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>61353</v>
       </c>
@@ -2397,22 +2384,22 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>60848</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>59844</v>
       </c>
@@ -2429,7 +2416,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>59930</v>
       </c>
@@ -2443,7 +2430,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>59950</v>
       </c>
@@ -2457,24 +2444,24 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
         <v>60040</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>59953</v>
       </c>
@@ -2491,7 +2478,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>59956</v>
       </c>
@@ -2508,7 +2495,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>59957</v>
       </c>
@@ -2525,20 +2512,20 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>59986</v>
       </c>
       <c r="B11" t="s">
         <v>235</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" t="s">
         <v>232</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2552,20 +2539,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2582,7 +2569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>62551</v>
       </c>
@@ -2597,7 +2584,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>62851</v>
       </c>
@@ -2611,7 +2598,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>62852</v>
       </c>
@@ -2625,7 +2612,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>62854</v>
       </c>
@@ -2642,7 +2629,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>59716</v>
       </c>
@@ -2656,7 +2643,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>59718</v>
       </c>
@@ -2670,7 +2657,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>59720</v>
       </c>
@@ -2687,7 +2674,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>53394</v>
       </c>
@@ -2701,7 +2688,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>53395</v>
       </c>
@@ -2715,7 +2702,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>59542</v>
       </c>
@@ -2729,7 +2716,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>59545</v>
       </c>
@@ -2743,7 +2730,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>59551</v>
       </c>
@@ -2760,7 +2747,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>60684</v>
       </c>
@@ -2774,7 +2761,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="E15" t="s">
         <v>205</v>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9064EA-21B3-46E8-856B-3853C9EA7344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E75F60E-FECD-419F-B1A2-F6BEAF8FB4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="332">
   <si>
     <t>Parametros</t>
   </si>
@@ -607,12 +607,6 @@
     <t>debindebin4*</t>
   </si>
   <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7168","descripcion":"EL CUIT ADMINISTRADOR NO PERTENECE A LA RED INFORMADA)"}}}</t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7168","descripcion":"CUIT ADMINISTRADOR MAL FORMULADO)"}}}</t>
-  </si>
-  <si>
     <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Vacio</t>
   </si>
   <si>
@@ -622,18 +616,6 @@
     <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Invalido</t>
   </si>
   <si>
-    <t>"operacion":{"administrador":{"cuit":""},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"administrador":{"cuit":"2000000055"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"administrador":{"cuit":"20000000558"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"administrador":{"cuit":"20000000559"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
-  </si>
-  <si>
     <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Valido</t>
   </si>
   <si>
@@ -886,9 +868,6 @@
     <t xml:space="preserve">QRSolicitudContracargo: ORI_TRX_ID cambiar validación 5624 - Coelsa Aceptador - Dev Parcial - Caso Negativo </t>
   </si>
   <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"5600","descripcion":"ID DE OPERACION TRX_ID EXISTENTE"}}}</t>
-  </si>
-  <si>
     <t>QRDebin*-&gt;ConfirmaDebito*-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*</t>
   </si>
   <si>
@@ -899,6 +878,168 @@
   </si>
   <si>
     <t>"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit VACIO- QR Raw COELSA</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit VACIO- QR Raw LINK</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit PRISMA - QR Raw COELSA</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit LINK - QR Raw COELSA</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000087"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000559"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":""}}}</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit COELSA- QR Raw PRISMA</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":""},"detalle":{"qr":"00020101021143660014ar.com.redlink0144http://172.16.202.40:8080/billetera-expuesta501400103362974229520497005303ARS5406123.455802AR5904Test6015Ciudad Autonoma6104116062100706AR875480101481CHI0016304B775"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000559"},"detalle":{"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":""},"detalle":{"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000558"},"detalle":{"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"2000000055"},"detalle":{"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da"}}}</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit COELSA- QR Raw LINK</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"qr":"00020101021143660014ar.com.redlink0144http://172.16.202.40:8080/billetera-expuesta501400103362974229520497005303ARS5406123.455802AR5904Test6015Ciudad Autonoma6104116062100706AR875480101481CHI0016304B775"}}}</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit LINK - QR Raw LINK</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit COELSA- QR Raw COELSA</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*-&gt;debindebin4*</t>
+  </si>
+  <si>
+    <t>Cambio en GET Debin4 DAC_DEVOLUCION_ESTADO por DAC_ESTADO_ID - Validar Cambio</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}}}|"operacion_original":{"detalle":{"importe":1}},"objeto":{"ori_trx_id":"nuevo"}|"id":"debin.id"</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;QRSolicitudContraCargo*-&gt;debindebin4*</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}}}|"id":"debin.id"</t>
+  </si>
+  <si>
+    <t>Consulta po ID- Verificar que al realiza un "DEBINQR", traiga el "CONTRACARGOQR realizado del id original DAC_ID_HASH</t>
+  </si>
+  <si>
+    <t>Consulta por ID- Verificar que al realiza un "DEBINQR", traiga la lista de Varios CONTRACARGOQR realizados del id original DAC_ID_HASH</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}}}|"operacion_original":{"detalle":{"importe":1}},"objeto":{"ori_trx_id":"nuevo"}|"operacion_original":{"detalle":{"importe":1}},"objeto":{"ori_trx_id":"nuevo"}|"id":"debin.id"</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*-&gt;debindebin4*</t>
+  </si>
+  <si>
+    <t>GET Debin4: Propiedad ori_trx_id - Coelsa Aceptador - OK</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation-&gt;Refund-&gt;debindebin4*</t>
+  </si>
+  <si>
+    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*-&gt;debindebin4*</t>
+  </si>
+  <si>
+    <t>"operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"id":"debin.id"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"id":"debin.id"</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment/Validations - bcra_id - null - OK</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"null"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7168","descripcion":"EL CUIT ADMINISTRADOR NO PERTENECE A LA RED INFORMADA"}}}</t>
+  </si>
+  <si>
+    <t>QRDebininteroperable*</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment/Validations - bcra_id - Sin bcra_id - OK</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment - bcra_id - Sin bcra_id - OK</t>
+  </si>
+  <si>
+    <t>PaymentValidationbcra</t>
+  </si>
+  <si>
+    <t>PaymentValidation-&gt;Paymentbcra</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Aceptador - Payment - bcra_id - null - OK</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"bcra_id":"01010"}}}|"payer":{"wallet":{"bcra_id":"null"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"null"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - null - OK</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - Sin bcra_id - OK</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation-&gt;Refund*</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation-&gt;Refundbcra</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7164","descripcion": "DATOS INVALIDOS RED (INTEROPERABLE)"}}}</t>
+  </si>
+  <si>
+    <t>QRDebininteroperable</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000087"},"detalle":{"qr":"00020101021143660014ar.com.redlink0144http://172.16.202.40:8080/billetera-expuesta501400103362974229520497005303ARS5406123.455802AR5904Test6015Ciudad Autonoma6104116062100706AR875480101481CHI0016304B775"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7167","descripcion":"CUIT ADMINISTRADOR MAL FORMULADO"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - Sin bcra_id - OK</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - null - OK</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidationbcra</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1449,7 @@
     <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2105,71 +2246,205 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="9">
         <v>59692</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="B48" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>59693</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>59693</v>
-      </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>59695</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E49" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>59696</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>59695</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="2" t="s">
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>60880</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>59696</v>
-      </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E52" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>60882</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E51" t="s">
-        <v>196</v>
+      <c r="E53" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>60874</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>60875</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>60876</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>60879</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>60946</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>60947</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2185,17 +2460,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="94.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="5" max="5" width="99.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,7 +2583,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>118</v>
@@ -2325,7 +2600,7 @@
         <v>133</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>143</v>
@@ -2342,7 +2617,7 @@
         <v>133</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>143</v>
@@ -2359,7 +2634,7 @@
         <v>133</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>144</v>
@@ -2373,14 +2648,14 @@
         <v>59603</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2388,14 +2663,14 @@
         <v>59604</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2403,16 +2678,16 @@
         <v>60256</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2420,16 +2695,16 @@
         <v>60040</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2437,16 +2712,16 @@
         <v>60268</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2454,16 +2729,16 @@
         <v>60271</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2471,16 +2746,16 @@
         <v>60274</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2488,16 +2763,16 @@
         <v>60347</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2505,16 +2780,16 @@
         <v>60349</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2565,10 +2840,10 @@
         <v>121</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>123</v>
@@ -2582,10 +2857,10 @@
         <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>122</v>
@@ -2599,7 +2874,7 @@
         <v>121</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>120</v>
@@ -2616,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27905B-1E87-40DF-B6B4-452FD9A02DC6}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,13 +2957,13 @@
         <v>59930</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2696,16 +2971,16 @@
         <v>59953</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2713,16 +2988,16 @@
         <v>59956</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2730,16 +3005,16 @@
         <v>59957</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2747,16 +3022,16 @@
         <v>59986</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2764,16 +3039,16 @@
         <v>59970</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2781,16 +3056,16 @@
         <v>59971</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2798,16 +3073,16 @@
         <v>59984</v>
       </c>
       <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
         <v>233</v>
       </c>
-      <c r="C11" t="s">
-        <v>239</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2815,16 +3090,16 @@
         <v>59987</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2832,21 +3107,79 @@
         <v>60386</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="17"/>
+      <c r="A14">
+        <v>60712</v>
+      </c>
+      <c r="B14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60710</v>
+      </c>
+      <c r="B15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60711</v>
+      </c>
+      <c r="B16" t="s">
+        <v>317</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60713</v>
+      </c>
+      <c r="B17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" t="s">
+        <v>318</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2856,16 +3189,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA3C39-F395-444B-9CEE-CFC2FA04FF9A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="2" max="2" width="65" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" customWidth="1"/>
     <col min="5" max="5" width="81.140625" customWidth="1"/>
@@ -2893,16 +3226,16 @@
         <v>59844</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2910,13 +3243,13 @@
         <v>59950</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2924,16 +3257,16 @@
         <v>59991</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2941,16 +3274,16 @@
         <v>59993</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2958,16 +3291,16 @@
         <v>59994</v>
       </c>
       <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2975,16 +3308,16 @@
         <v>59997</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2992,16 +3325,16 @@
         <v>59998</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3009,16 +3342,16 @@
         <v>59999</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3026,16 +3359,16 @@
         <v>60002</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3043,16 +3376,16 @@
         <v>60003</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3060,14 +3393,79 @@
         <v>60246</v>
       </c>
       <c r="B12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60717</v>
+      </c>
+      <c r="B13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60716</v>
+      </c>
+      <c r="B14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60714</v>
+      </c>
+      <c r="B15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60715</v>
+      </c>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3078,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3296,16 +3694,80 @@
         <v>186</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60769</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>54084</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>54085</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60685</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60686</v>
+      </c>
+      <c r="B19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E75F60E-FECD-419F-B1A2-F6BEAF8FB4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8C4393-1082-4CDE-AE38-C3A4B45BC71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -721,9 +721,6 @@
     <t>PaymentValidation*</t>
   </si>
   <si>
-    <t>"operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":400,"Mensaje":{"errors": [{"code":"Error","description":"bcra_id must be numeric"}]}}</t>
   </si>
   <si>
@@ -1040,6 +1037,9 @@
   </si>
   <si>
     <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidationbcra</t>
+  </si>
+  <si>
+    <t>"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,13 +2250,13 @@
         <v>59692</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>189</v>
@@ -2267,13 +2267,13 @@
         <v>59693</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>188</v>
@@ -2284,10 +2284,10 @@
         <v>59695</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>64</v>
@@ -2301,10 +2301,10 @@
         <v>59696</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>64</v>
@@ -2318,16 +2318,16 @@
         <v>60880</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2335,16 +2335,16 @@
         <v>60882</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2352,16 +2352,16 @@
         <v>60874</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2369,16 +2369,16 @@
         <v>60875</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2386,16 +2386,16 @@
         <v>60876</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2403,16 +2403,16 @@
         <v>60879</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2420,16 +2420,16 @@
         <v>60946</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2437,14 +2437,14 @@
         <v>60947</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="11" t="s">
         <v>64</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2460,8 +2460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,7 +2583,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>118</v>
@@ -2678,16 +2678,16 @@
         <v>60256</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>263</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>264</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
         <v>214</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>225</v>
+        <v>331</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>118</v>
@@ -2712,16 +2712,16 @@
         <v>60268</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2732,13 +2732,13 @@
         <v>214</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2746,16 +2746,16 @@
         <v>60274</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>270</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>271</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2763,16 +2763,16 @@
         <v>60347</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>135</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2780,16 +2780,16 @@
         <v>60349</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>275</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2843,7 @@
         <v>209</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>123</v>
@@ -2860,7 +2860,7 @@
         <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>122</v>
@@ -2893,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27905B-1E87-40DF-B6B4-452FD9A02DC6}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,7 +3011,7 @@
         <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>220</v>
@@ -3039,16 +3039,16 @@
         <v>59970</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3056,16 +3056,16 @@
         <v>59971</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3073,16 +3073,16 @@
         <v>59984</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3090,16 +3090,16 @@
         <v>59987</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3107,16 +3107,16 @@
         <v>60386</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3127,13 +3127,13 @@
         <v>224</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>207</v>
       </c>
       <c r="E14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3141,13 +3141,13 @@
         <v>60710</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3155,13 +3155,13 @@
         <v>60711</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3169,16 +3169,16 @@
         <v>60713</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3191,8 +3191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA3C39-F395-444B-9CEE-CFC2FA04FF9A}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3229,7 +3229,7 @@
         <v>202</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>203</v>
@@ -3257,16 +3257,16 @@
         <v>59991</v>
       </c>
       <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3274,16 +3274,16 @@
         <v>59993</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3291,16 +3291,16 @@
         <v>59994</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3308,16 +3308,16 @@
         <v>59997</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3325,16 +3325,16 @@
         <v>59998</v>
       </c>
       <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3342,16 +3342,16 @@
         <v>59999</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3359,16 +3359,16 @@
         <v>60002</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3376,16 +3376,16 @@
         <v>60003</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3393,14 +3393,14 @@
         <v>60246</v>
       </c>
       <c r="B12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3408,16 +3408,16 @@
         <v>60717</v>
       </c>
       <c r="B13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3425,16 +3425,16 @@
         <v>60716</v>
       </c>
       <c r="B14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3442,13 +3442,13 @@
         <v>60714</v>
       </c>
       <c r="B15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3456,16 +3456,16 @@
         <v>60715</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3705,13 +3705,13 @@
         <v>60769</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15" t="s">
         <v>296</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3719,13 +3719,13 @@
         <v>54084</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="E16" t="s">
         <v>300</v>
-      </c>
-      <c r="E16" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3733,13 +3733,13 @@
         <v>54085</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3747,13 +3747,13 @@
         <v>60685</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>308</v>
-      </c>
       <c r="E18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3761,10 +3761,10 @@
         <v>60686</v>
       </c>
       <c r="B19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E19" t="s">
         <v>198</v>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9064EA-21B3-46E8-856B-3853C9EA7344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F36AA-4C5C-456A-98A2-414AF4512C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="286">
   <si>
     <t>Parametros</t>
   </si>
@@ -739,9 +739,6 @@
     <t>PaymentValidation*</t>
   </si>
   <si>
-    <t>"operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":400,"Mensaje":{"errors": [{"code":"Error","description":"bcra_id must be numeric"}]}}</t>
   </si>
   <si>
@@ -899,6 +896,12 @@
   </si>
   <si>
     <t>"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+  </si>
+  <si>
+    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargoPayment*</t>
+  </si>
+  <si>
+    <t>"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -973,19 +976,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -994,9 +984,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1302,16 +1289,16 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>53766</v>
       </c>
@@ -1345,7 +1332,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>53799</v>
       </c>
@@ -1362,7 +1349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>53800</v>
       </c>
@@ -1379,7 +1366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>53801</v>
       </c>
@@ -1396,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>53802</v>
       </c>
@@ -1413,7 +1400,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>53803</v>
       </c>
@@ -1430,7 +1417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>53804</v>
       </c>
@@ -1447,7 +1434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>53805</v>
       </c>
@@ -1464,7 +1451,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>53806</v>
       </c>
@@ -1481,7 +1468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>53807</v>
       </c>
@@ -1498,7 +1485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>53808</v>
       </c>
@@ -1515,7 +1502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>53809</v>
       </c>
@@ -1532,7 +1519,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>53810</v>
       </c>
@@ -1549,7 +1536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>53811</v>
       </c>
@@ -1566,7 +1553,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>53812</v>
       </c>
@@ -1583,7 +1570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>53813</v>
       </c>
@@ -1600,7 +1587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>53814</v>
       </c>
@@ -1617,7 +1604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>53816</v>
       </c>
@@ -1634,7 +1621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>53817</v>
       </c>
@@ -1651,7 +1638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>53818</v>
       </c>
@@ -1668,7 +1655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>53819</v>
       </c>
@@ -1685,7 +1672,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>53820</v>
       </c>
@@ -1702,7 +1689,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>53821</v>
       </c>
@@ -1719,7 +1706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>53822</v>
       </c>
@@ -1736,7 +1723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>53823</v>
       </c>
@@ -1753,7 +1740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>53824</v>
       </c>
@@ -1770,7 +1757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>53825</v>
       </c>
@@ -1787,7 +1774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>53826</v>
       </c>
@@ -1804,7 +1791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>53827</v>
       </c>
@@ -1821,7 +1808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>53828</v>
       </c>
@@ -1838,7 +1825,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>53829</v>
       </c>
@@ -1855,7 +1842,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>53830</v>
       </c>
@@ -1872,7 +1859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>53831</v>
       </c>
@@ -1889,7 +1876,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>53832</v>
       </c>
@@ -1906,7 +1893,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>53833</v>
       </c>
@@ -1923,7 +1910,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>53834</v>
       </c>
@@ -1940,7 +1927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>53835</v>
       </c>
@@ -1957,7 +1944,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>53836</v>
       </c>
@@ -1974,7 +1961,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>53837</v>
       </c>
@@ -1991,7 +1978,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>53840</v>
       </c>
@@ -2008,7 +1995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>53842</v>
       </c>
@@ -2025,7 +2012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>59833</v>
       </c>
@@ -2042,7 +2029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>59841</v>
       </c>
@@ -2059,7 +2046,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>62080</v>
       </c>
@@ -2076,7 +2063,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>60688</v>
       </c>
@@ -2090,7 +2077,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>60780</v>
       </c>
@@ -2104,7 +2091,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>59692</v>
       </c>
@@ -2121,7 +2108,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>59693</v>
       </c>
@@ -2138,7 +2125,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>59695</v>
       </c>
@@ -2155,7 +2142,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>59696</v>
       </c>
@@ -2185,20 +2172,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="98.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2215,14 +2202,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>60532</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2232,7 +2219,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>60902</v>
       </c>
@@ -2249,7 +2236,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>60903</v>
       </c>
@@ -2266,7 +2253,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>60904</v>
       </c>
@@ -2283,7 +2270,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>60905</v>
       </c>
@@ -2300,24 +2287,24 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>60906</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>60908</v>
       </c>
@@ -2334,7 +2321,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>60909</v>
       </c>
@@ -2351,7 +2338,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>60910</v>
       </c>
@@ -2368,7 +2355,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>59603</v>
       </c>
@@ -2383,7 +2370,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>59604</v>
       </c>
@@ -2398,123 +2385,123 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>60256</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>270</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="E13" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
         <v>60040</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>60268</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>60271</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C16" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>60268</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="E16" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>60274</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>60271</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="E17" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>60347</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>60274</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="C18" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>60347</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" s="14" t="s">
+    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>60349</v>
+      </c>
+      <c r="B19" t="s">
         <v>280</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>60349</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>282</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2527,20 +2514,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2557,7 +2544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>59007</v>
       </c>
@@ -2568,13 +2555,13 @@
         <v>215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>59006</v>
       </c>
@@ -2585,13 +2572,13 @@
         <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>59305</v>
       </c>
@@ -2618,20 +2605,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27905B-1E87-40DF-B6B4-452FD9A02DC6}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="54.81640625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="81.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2648,7 +2635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>61353</v>
       </c>
@@ -2662,22 +2649,22 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>60848</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>59930</v>
       </c>
@@ -2691,7 +2678,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>59953</v>
       </c>
@@ -2708,7 +2695,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>59956</v>
       </c>
@@ -2725,7 +2712,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>59957</v>
       </c>
@@ -2736,20 +2723,20 @@
         <v>225</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>59986</v>
       </c>
       <c r="B8" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>227</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2759,94 +2746,93 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>59970</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>59971</v>
       </c>
       <c r="B10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>59984</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>59987</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>60386</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="17"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2858,20 +2844,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA3C39-F395-444B-9CEE-CFC2FA04FF9A}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="54.81640625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="81.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2888,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>59844</v>
       </c>
@@ -2896,7 +2882,7 @@
         <v>208</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>209</v>
@@ -2905,7 +2891,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>59950</v>
       </c>
@@ -2919,155 +2905,155 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>59991</v>
       </c>
       <c r="B4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>247</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>59993</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>59994</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>59997</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>59998</v>
       </c>
       <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>59999</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>60002</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>60003</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>229</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>60246</v>
       </c>
       <c r="B12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>266</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3084,16 +3070,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.453125" customWidth="1"/>
+    <col min="5" max="5" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3110,7 +3096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>62551</v>
       </c>
@@ -3125,7 +3111,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>62851</v>
       </c>
@@ -3139,7 +3125,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>62852</v>
       </c>
@@ -3153,7 +3139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>62854</v>
       </c>
@@ -3170,7 +3156,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>59716</v>
       </c>
@@ -3184,7 +3170,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>59718</v>
       </c>
@@ -3198,7 +3184,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>59720</v>
       </c>
@@ -3215,7 +3201,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>53394</v>
       </c>
@@ -3229,7 +3215,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>53395</v>
       </c>
@@ -3243,7 +3229,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>59542</v>
       </c>
@@ -3257,7 +3243,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>59545</v>
       </c>
@@ -3271,7 +3257,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>59551</v>
       </c>
@@ -3288,7 +3274,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>60684</v>
       </c>
@@ -3302,7 +3288,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="E15" t="s">
         <v>204</v>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F36AA-4C5C-456A-98A2-414AF4512C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E536F7-5DD1-4A00-B253-465868AC0BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,10 +898,10 @@
     <t>"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
   </si>
   <si>
-    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargoPayment*</t>
-  </si>
-  <si>
-    <t>"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+  </si>
+  <si>
+    <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*</t>
   </si>
 </sst>
 </file>
@@ -2172,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2407,10 +2407,10 @@
         <v>60040</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>118</v>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E536F7-5DD1-4A00-B253-465868AC0BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FF4433-B3F7-460B-B7BC-7382940DD0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="284">
   <si>
     <t>Parametros</t>
   </si>
@@ -706,9 +706,6 @@
     <t>IdBilletera BCRA - Coelsa Aceptador - Refunds - OK</t>
   </si>
   <si>
-    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*</t>
-  </si>
-  <si>
     <t>IdBilletera BCRA - Coelsa Aceptador - Payment/Validations - bcra_id - menor a 5 caracteres</t>
   </si>
   <si>
@@ -856,27 +853,12 @@
     <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"importe":1000}}}|"operacion_original":{"detalle":{"importe":1000}}}|"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"importe":1000}}}|"operacion_original":{"detalle":{"importe":1000}}}</t>
   </si>
   <si>
-    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*</t>
-  </si>
-  <si>
     <t>QRSolicitudContracargo: ORI_TRX_ID cambiar validación 5624 - Coelsa Aceptador - Dev Parcial</t>
   </si>
   <si>
-    <t>"operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}},"objeto":{"ori_trx_id":"nuevo"}</t>
-  </si>
-  <si>
-    <t>"operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
-  </si>
-  <si>
     <t>QRSolicitudContracargo: ORI_TRX_ID cambiar validación 5624 - Coelsa Aceptador - Dev Total</t>
   </si>
   <si>
-    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*-&gt;PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*</t>
-  </si>
-  <si>
-    <t>"operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
-  </si>
-  <si>
     <t>QRSolicitudContracargo: ORI_TRX_ID cambiar validación 5624 - Coelsa Aceptador - Dev Total mismo PSP</t>
   </si>
   <si>
@@ -895,13 +877,25 @@
     <t xml:space="preserve">QRSolicitudContracargo: ORI_TRX_ID cambiar validación 5624 - Coelsa - Coelsa - Dev Parcial - Caso Negativo </t>
   </si>
   <si>
-    <t>"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
-  </si>
-  <si>
     <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
   </si>
   <si>
     <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*</t>
+  </si>
+  <si>
+    <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*-&gt;QRSolicitudContraCargoPayment*</t>
+  </si>
+  <si>
+    <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*-&gt;PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*</t>
+  </si>
+  <si>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+  </si>
+  <si>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}},"objeto":{"ori_trx_id":"nuevo"}</t>
+  </si>
+  <si>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
   </si>
 </sst>
 </file>
@@ -917,7 +911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,12 +927,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,20 +964,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1289,16 +1277,16 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>53766</v>
       </c>
@@ -1332,7 +1320,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>53799</v>
       </c>
@@ -1349,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53800</v>
       </c>
@@ -1366,7 +1354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>53801</v>
       </c>
@@ -1383,7 +1371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53802</v>
       </c>
@@ -1400,7 +1388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>53803</v>
       </c>
@@ -1417,7 +1405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>53804</v>
       </c>
@@ -1434,7 +1422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53805</v>
       </c>
@@ -1451,7 +1439,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53806</v>
       </c>
@@ -1468,7 +1456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53807</v>
       </c>
@@ -1485,7 +1473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>53808</v>
       </c>
@@ -1502,7 +1490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>53809</v>
       </c>
@@ -1519,7 +1507,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>53810</v>
       </c>
@@ -1536,7 +1524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53811</v>
       </c>
@@ -1553,7 +1541,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>53812</v>
       </c>
@@ -1570,7 +1558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>53813</v>
       </c>
@@ -1587,7 +1575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>53814</v>
       </c>
@@ -1604,7 +1592,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>53816</v>
       </c>
@@ -1621,7 +1609,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>53817</v>
       </c>
@@ -1638,7 +1626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>53818</v>
       </c>
@@ -1655,7 +1643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>53819</v>
       </c>
@@ -1672,7 +1660,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>53820</v>
       </c>
@@ -1689,7 +1677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>53821</v>
       </c>
@@ -1706,7 +1694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>53822</v>
       </c>
@@ -1723,7 +1711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>53823</v>
       </c>
@@ -1740,7 +1728,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>53824</v>
       </c>
@@ -1757,7 +1745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>53825</v>
       </c>
@@ -1774,7 +1762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>53826</v>
       </c>
@@ -1791,7 +1779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>53827</v>
       </c>
@@ -1808,7 +1796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>53828</v>
       </c>
@@ -1825,7 +1813,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>53829</v>
       </c>
@@ -1842,7 +1830,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>53830</v>
       </c>
@@ -1859,7 +1847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>53831</v>
       </c>
@@ -1876,7 +1864,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>53832</v>
       </c>
@@ -1893,7 +1881,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>53833</v>
       </c>
@@ -1910,7 +1898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>53834</v>
       </c>
@@ -1927,7 +1915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>53835</v>
       </c>
@@ -1944,7 +1932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>53836</v>
       </c>
@@ -1961,7 +1949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53837</v>
       </c>
@@ -1978,7 +1966,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>53840</v>
       </c>
@@ -1995,7 +1983,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53842</v>
       </c>
@@ -2012,7 +2000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>59833</v>
       </c>
@@ -2029,7 +2017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>59841</v>
       </c>
@@ -2046,7 +2034,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>62080</v>
       </c>
@@ -2063,7 +2051,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>60688</v>
       </c>
@@ -2077,7 +2065,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>60780</v>
       </c>
@@ -2091,7 +2079,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>59692</v>
       </c>
@@ -2108,7 +2096,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>59693</v>
       </c>
@@ -2125,7 +2113,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>59695</v>
       </c>
@@ -2142,7 +2130,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>59696</v>
       </c>
@@ -2172,20 +2160,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="98.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="98.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2202,7 +2190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60532</v>
       </c>
@@ -2219,7 +2207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60902</v>
       </c>
@@ -2236,7 +2224,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60903</v>
       </c>
@@ -2253,7 +2241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>60904</v>
       </c>
@@ -2270,7 +2258,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60905</v>
       </c>
@@ -2287,7 +2275,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60906</v>
       </c>
@@ -2295,7 +2283,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>118</v>
@@ -2304,7 +2292,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60908</v>
       </c>
@@ -2321,7 +2309,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60909</v>
       </c>
@@ -2338,7 +2326,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60910</v>
       </c>
@@ -2355,7 +2343,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59603</v>
       </c>
@@ -2370,7 +2358,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59604</v>
       </c>
@@ -2385,123 +2373,123 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>60256</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="E13" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>60040</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>285</v>
+      <c r="B14" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>60268</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>60271</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="C15" s="11" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>60274</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>60347</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>60271</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>60274</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>60347</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>60349</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2518,16 +2506,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2544,7 +2532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>59007</v>
       </c>
@@ -2555,13 +2543,13 @@
         <v>215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>59006</v>
       </c>
@@ -2572,13 +2560,13 @@
         <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59305</v>
       </c>
@@ -2609,16 +2597,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="54.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="81.1796875" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2635,7 +2623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>61353</v>
       </c>
@@ -2649,7 +2637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60848</v>
       </c>
@@ -2664,7 +2652,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59930</v>
       </c>
@@ -2678,160 +2666,160 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>59953</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>59956</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59957</v>
       </c>
       <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59986</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>59970</v>
       </c>
       <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59971</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59984</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59987</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60386</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
     </row>
   </sheetData>
@@ -2848,16 +2836,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="54.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="81.1796875" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2874,7 +2862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>59844</v>
       </c>
@@ -2882,7 +2870,7 @@
         <v>208</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>209</v>
@@ -2891,7 +2879,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>59950</v>
       </c>
@@ -2905,155 +2893,155 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59991</v>
       </c>
       <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>59993</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>59994</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59997</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59998</v>
       </c>
       <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>59999</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60002</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60003</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60246</v>
       </c>
       <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3070,16 +3058,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3096,7 +3084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>62551</v>
       </c>
@@ -3111,7 +3099,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62851</v>
       </c>
@@ -3125,7 +3113,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>62852</v>
       </c>
@@ -3139,7 +3127,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>62854</v>
       </c>
@@ -3156,7 +3144,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>59716</v>
       </c>
@@ -3170,7 +3158,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59718</v>
       </c>
@@ -3184,7 +3172,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59720</v>
       </c>
@@ -3201,7 +3189,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53394</v>
       </c>
@@ -3215,7 +3203,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53395</v>
       </c>
@@ -3229,7 +3217,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59542</v>
       </c>
@@ -3243,7 +3231,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59545</v>
       </c>
@@ -3257,7 +3245,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>59551</v>
       </c>
@@ -3274,7 +3262,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60684</v>
       </c>
@@ -3288,7 +3276,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="E15" t="s">
         <v>204</v>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E536F7-5DD1-4A00-B253-465868AC0BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7B7A11-3DE2-4207-A492-A05B5CF4AE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="285">
   <si>
     <t>Parametros</t>
   </si>
@@ -706,9 +706,6 @@
     <t>IdBilletera BCRA - Coelsa Aceptador - Refunds - OK</t>
   </si>
   <si>
-    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*</t>
-  </si>
-  <si>
     <t>IdBilletera BCRA - Coelsa Aceptador - Payment/Validations - bcra_id - menor a 5 caracteres</t>
   </si>
   <si>
@@ -856,27 +853,12 @@
     <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"importe":1000}}}|"operacion_original":{"detalle":{"importe":1000}}}|"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"importe":1000}}}|"operacion_original":{"detalle":{"importe":1000}}}</t>
   </si>
   <si>
-    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*-&gt;QRSolicitudContraCargo*</t>
-  </si>
-  <si>
     <t>QRSolicitudContracargo: ORI_TRX_ID cambiar validación 5624 - Coelsa Aceptador - Dev Parcial</t>
   </si>
   <si>
-    <t>"operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}},"objeto":{"ori_trx_id":"nuevo"}</t>
-  </si>
-  <si>
-    <t>"operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
-  </si>
-  <si>
     <t>QRSolicitudContracargo: ORI_TRX_ID cambiar validación 5624 - Coelsa Aceptador - Dev Total</t>
   </si>
   <si>
-    <t>PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*-&gt;PaymentValidation-&gt;Payment-&gt;QRSolicitudContraCargo*</t>
-  </si>
-  <si>
-    <t>"operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
-  </si>
-  <si>
     <t>QRSolicitudContracargo: ORI_TRX_ID cambiar validación 5624 - Coelsa Aceptador - Dev Total mismo PSP</t>
   </si>
   <si>
@@ -895,13 +877,28 @@
     <t xml:space="preserve">QRSolicitudContracargo: ORI_TRX_ID cambiar validación 5624 - Coelsa - Coelsa - Dev Parcial - Caso Negativo </t>
   </si>
   <si>
-    <t>"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
-  </si>
-  <si>
     <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
   </si>
   <si>
     <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*</t>
+  </si>
+  <si>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+  </si>
+  <si>
+    <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*-&gt;QRSolicitudContraCargoPayment*</t>
+  </si>
+  <si>
+    <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*-&gt;PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*</t>
+  </si>
+  <si>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}},"objeto":{"ori_trx_id":"nuevo"}</t>
+  </si>
+  <si>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+  </si>
+  <si>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
   </si>
 </sst>
 </file>
@@ -2172,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2295,7 +2292,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>118</v>
@@ -2390,16 +2387,16 @@
         <v>60256</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>269</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>118</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2407,10 +2404,10 @@
         <v>60040</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>118</v>
@@ -2424,16 +2421,16 @@
         <v>60268</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2441,16 +2438,16 @@
         <v>60271</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -2458,16 +2455,16 @@
         <v>60274</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -2475,16 +2472,16 @@
         <v>60347</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -2492,16 +2489,16 @@
         <v>60349</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2555,7 +2552,7 @@
         <v>215</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>123</v>
@@ -2572,7 +2569,7 @@
         <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>122</v>
@@ -2683,16 +2680,16 @@
         <v>59953</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2700,16 +2697,16 @@
         <v>59956</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2717,16 +2714,16 @@
         <v>59957</v>
       </c>
       <c r="B7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2734,16 +2731,16 @@
         <v>59986</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2751,16 +2748,16 @@
         <v>59970</v>
       </c>
       <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2768,16 +2765,16 @@
         <v>59971</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2785,16 +2782,16 @@
         <v>59984</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2802,16 +2799,16 @@
         <v>59987</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2819,16 +2816,16 @@
         <v>60386</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2882,7 +2879,7 @@
         <v>208</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>209</v>
@@ -2910,16 +2907,16 @@
         <v>59991</v>
       </c>
       <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -2927,16 +2924,16 @@
         <v>59993</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -2944,16 +2941,16 @@
         <v>59994</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -2961,16 +2958,16 @@
         <v>59997</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -2978,16 +2975,16 @@
         <v>59998</v>
       </c>
       <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>256</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -2995,16 +2992,16 @@
         <v>59999</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -3012,16 +3009,16 @@
         <v>60002</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -3029,16 +3026,16 @@
         <v>60003</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -3046,14 +3043,14 @@
         <v>60246</v>
       </c>
       <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FF4433-B3F7-460B-B7BC-7382940DD0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CDFE0B-E4E1-4C14-B69C-465F806C1A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="285">
   <si>
     <t>Parametros</t>
   </si>
@@ -896,6 +896,9 @@
   </si>
   <si>
     <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+  </si>
+  <si>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}|"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2449,7 +2452,7 @@
         <v>280</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>118</v>
@@ -2502,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7B7A11-3DE2-4207-A492-A05B5CF4AE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CDFE0B-E4E1-4C14-B69C-465F806C1A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -883,22 +883,22 @@
     <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*</t>
   </si>
   <si>
+    <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*-&gt;QRSolicitudContraCargoPayment*</t>
+  </si>
+  <si>
+    <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*-&gt;PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*</t>
+  </si>
+  <si>
     <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
   </si>
   <si>
-    <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*-&gt;QRSolicitudContraCargoPayment*</t>
-  </si>
-  <si>
-    <t>PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*-&gt;PaymentValidation*-&gt;Payment*-&gt;QRSolicitudContraCargoPayment*</t>
-  </si>
-  <si>
     <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"banco":"016","operacion_original":{"detalle":{"importe":10.0},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}},"objeto":{"ori_trx_id":"nuevo"}</t>
   </si>
   <si>
     <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
   </si>
   <si>
-    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}|"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":10},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}}</t>
+    <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}|"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,12 +930,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,20 +967,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1286,16 +1280,16 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1312,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>53766</v>
       </c>
@@ -1329,7 +1323,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>53799</v>
       </c>
@@ -1346,7 +1340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>53800</v>
       </c>
@@ -1363,7 +1357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>53801</v>
       </c>
@@ -1380,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53802</v>
       </c>
@@ -1397,7 +1391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>53803</v>
       </c>
@@ -1414,7 +1408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>53804</v>
       </c>
@@ -1431,7 +1425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53805</v>
       </c>
@@ -1448,7 +1442,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53806</v>
       </c>
@@ -1465,7 +1459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53807</v>
       </c>
@@ -1482,7 +1476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>53808</v>
       </c>
@@ -1499,7 +1493,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>53809</v>
       </c>
@@ -1516,7 +1510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>53810</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53811</v>
       </c>
@@ -1550,7 +1544,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>53812</v>
       </c>
@@ -1567,7 +1561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>53813</v>
       </c>
@@ -1584,7 +1578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>53814</v>
       </c>
@@ -1601,7 +1595,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>53816</v>
       </c>
@@ -1618,7 +1612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>53817</v>
       </c>
@@ -1635,7 +1629,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>53818</v>
       </c>
@@ -1652,7 +1646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>53819</v>
       </c>
@@ -1669,7 +1663,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>53820</v>
       </c>
@@ -1686,7 +1680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>53821</v>
       </c>
@@ -1703,7 +1697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>53822</v>
       </c>
@@ -1720,7 +1714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>53823</v>
       </c>
@@ -1737,7 +1731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>53824</v>
       </c>
@@ -1754,7 +1748,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>53825</v>
       </c>
@@ -1771,7 +1765,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>53826</v>
       </c>
@@ -1788,7 +1782,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>53827</v>
       </c>
@@ -1805,7 +1799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>53828</v>
       </c>
@@ -1822,7 +1816,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>53829</v>
       </c>
@@ -1839,7 +1833,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>53830</v>
       </c>
@@ -1856,7 +1850,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>53831</v>
       </c>
@@ -1873,7 +1867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>53832</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>53833</v>
       </c>
@@ -1907,7 +1901,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>53834</v>
       </c>
@@ -1924,7 +1918,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>53835</v>
       </c>
@@ -1941,7 +1935,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>53836</v>
       </c>
@@ -1958,7 +1952,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>53837</v>
       </c>
@@ -1975,7 +1969,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>53840</v>
       </c>
@@ -1992,7 +1986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>53842</v>
       </c>
@@ -2009,7 +2003,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>59833</v>
       </c>
@@ -2026,7 +2020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>59841</v>
       </c>
@@ -2043,7 +2037,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>62080</v>
       </c>
@@ -2060,7 +2054,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>60688</v>
       </c>
@@ -2074,7 +2068,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>60780</v>
       </c>
@@ -2088,7 +2082,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>59692</v>
       </c>
@@ -2105,7 +2099,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>59693</v>
       </c>
@@ -2122,7 +2116,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>59695</v>
       </c>
@@ -2139,7 +2133,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>59696</v>
       </c>
@@ -2169,20 +2163,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="98.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="98.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2199,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>60532</v>
       </c>
@@ -2216,7 +2210,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60902</v>
       </c>
@@ -2233,7 +2227,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60903</v>
       </c>
@@ -2250,7 +2244,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>60904</v>
       </c>
@@ -2267,7 +2261,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60905</v>
       </c>
@@ -2284,7 +2278,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60906</v>
       </c>
@@ -2301,7 +2295,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60908</v>
       </c>
@@ -2318,7 +2312,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60909</v>
       </c>
@@ -2335,7 +2329,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60910</v>
       </c>
@@ -2352,7 +2346,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59603</v>
       </c>
@@ -2367,7 +2361,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59604</v>
       </c>
@@ -2382,109 +2376,109 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>60256</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>268</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>60040</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>278</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>60268</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>60271</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>60274</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="C17" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>60271</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>60274</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="E17" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>60347</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>60347</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>60349</v>
       </c>
@@ -2511,20 +2505,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2541,7 +2535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>59007</v>
       </c>
@@ -2558,7 +2552,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>59006</v>
       </c>
@@ -2575,7 +2569,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59305</v>
       </c>
@@ -2606,16 +2600,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="54.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="81.1796875" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2632,7 +2626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>61353</v>
       </c>
@@ -2646,7 +2640,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60848</v>
       </c>
@@ -2661,7 +2655,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59930</v>
       </c>
@@ -2675,7 +2669,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>59953</v>
       </c>
@@ -2692,7 +2686,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>59956</v>
       </c>
@@ -2709,7 +2703,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59957</v>
       </c>
@@ -2726,7 +2720,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59986</v>
       </c>
@@ -2743,7 +2737,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>59970</v>
       </c>
@@ -2760,7 +2754,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>59971</v>
       </c>
@@ -2777,7 +2771,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59984</v>
       </c>
@@ -2794,7 +2788,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59987</v>
       </c>
@@ -2811,7 +2805,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>60386</v>
       </c>
@@ -2828,7 +2822,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
     </row>
   </sheetData>
@@ -2845,16 +2839,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="54.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="81.1796875" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="81.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2871,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>59844</v>
       </c>
@@ -2888,7 +2882,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>59950</v>
       </c>
@@ -2902,7 +2896,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>59991</v>
       </c>
@@ -2919,7 +2913,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>59993</v>
       </c>
@@ -2936,7 +2930,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>59994</v>
       </c>
@@ -2953,7 +2947,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59997</v>
       </c>
@@ -2970,7 +2964,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59998</v>
       </c>
@@ -2987,7 +2981,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>59999</v>
       </c>
@@ -3004,7 +2998,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>60002</v>
       </c>
@@ -3021,7 +3015,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60003</v>
       </c>
@@ -3038,7 +3032,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60246</v>
       </c>
@@ -3067,16 +3061,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
-    <col min="4" max="4" width="82.453125" customWidth="1"/>
-    <col min="5" max="5" width="58.453125" customWidth="1"/>
+    <col min="4" max="4" width="82.42578125" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3093,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>62551</v>
       </c>
@@ -3108,7 +3102,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62851</v>
       </c>
@@ -3122,7 +3116,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>62852</v>
       </c>
@@ -3136,7 +3130,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>62854</v>
       </c>
@@ -3153,7 +3147,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>59716</v>
       </c>
@@ -3167,7 +3161,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>59718</v>
       </c>
@@ -3181,7 +3175,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>59720</v>
       </c>
@@ -3198,7 +3192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53394</v>
       </c>
@@ -3212,7 +3206,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53395</v>
       </c>
@@ -3226,7 +3220,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>59542</v>
       </c>
@@ -3240,7 +3234,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59545</v>
       </c>
@@ -3254,7 +3248,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>59551</v>
       </c>
@@ -3271,7 +3265,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60684</v>
       </c>
@@ -3285,7 +3279,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="E15" t="s">
         <v>204</v>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CDFE0B-E4E1-4C14-B69C-465F806C1A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEB4386-5CCF-4AB6-9150-0B765B76F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -2164,7 +2164,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,20 +2410,20 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>60268</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="10" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13F07D4-A043-4E09-992B-E3E60FFD6B6A}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3057,14 +3057,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" customWidth="1"/>
     <col min="5" max="5" width="58.42578125" customWidth="1"/>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEB4386-5CCF-4AB6-9150-0B765B76F32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE8DA26-1DA6-4172-B1CD-B09FD39A0463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CONTRACARGOQR!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">GETs!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PAYMENTS!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">REFUNDS!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="322">
   <si>
     <t>Parametros</t>
   </si>
@@ -181,9 +181,6 @@
     <t>IMSI INCORRECTO</t>
   </si>
   <si>
-    <t>"operacion":{"datos_generador":{"imei":"123456789012342365235864275118888"}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7135","descripcion": "IMEI INCORRECTO"}}}</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>PRECISION INCORRECTA</t>
   </si>
   <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7153","descripcion": "BILLETERA NO HABILITADA"}}}</t>
-  </si>
-  <si>
     <t>BILLETERA INEXISTENTE</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>"operacion":{"detalle":{ "descripcion": "qqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqqq"}}</t>
   </si>
   <si>
-    <t>"operacion":{"comprador": {"cuenta": {"cbu": "9992798100000000001003","alias": ""},"cuit": "20000000990"},}</t>
-  </si>
-  <si>
     <t>"operacion":{"comprador":{"cuenta":{"cbu":"99847887000000000004"}}}}</t>
   </si>
   <si>
@@ -262,21 +253,12 @@
     <t>"operacion":{"vendedor":{"cuit":"20333048494","cbu":"0000004800000000008622"},"comprador":{"cuenta":{"cbu":"0000004800000000008622","alias":""},"cuit":"20333048494"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{ "id_billetera": 3}}</t>
-  </si>
-  <si>
     <t>"operacion":{"detalle":{ "qr_id_trx":"006091426212391283"}}</t>
   </si>
   <si>
     <t>"operacion":{"detalle":{ "qr":" "}}</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{ "id_comprobante": "56456456456456456456456456456"}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"datos_generador":{ "imsi":"123456789012342365235864275118888"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"datos_generador":{"ubicacion":{"lat":360}}</t>
   </si>
   <si>
@@ -298,9 +280,6 @@
     <t>"operacion":{"detalle":{ "moneda": "32"}}</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{ "id_usuario":"GHJGHJGHJ"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"vendedor": {"terminal": "123456789012345678901234567890123456789012345678901"}}</t>
   </si>
   <si>
@@ -352,9 +331,6 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7118","descripcion": "CUIT MAL FORMULADO DEL VENDEDOR"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"vendedor":{"cuit":"23202020208","cbu":"0000210500000000212452"},"comprador":{"cuenta":{"cbu":"9988851800000000000628","alias":""},"cuit":"20333048494"}}}</t>
-  </si>
-  <si>
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7159","descripcion": "PSP SIN CBU CONFIGURADO"}}}</t>
   </si>
   <si>
@@ -376,9 +352,6 @@
     <t>BILLETERA NO HABILITADA</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{ "id_billetera":17}}</t>
-  </si>
-  <si>
     <t>NO ADHERIDO COMO VENDEDOR CON CVU</t>
   </si>
   <si>
@@ -430,18 +403,12 @@
     <t>"operacion":{"detalle":{ "moneda": "840"}}</t>
   </si>
   <si>
-    <t>"operacion":{"comprador": {"cuenta": {"cbu": "","alias": "null"},"cuit": "27375575847"}}</t>
-  </si>
-  <si>
     <t>"operacion":{"comprador": {"cuenta": {"cbu": "9984788700000000000420","alias": ""},"cuit": "27375575847"}}</t>
   </si>
   <si>
     <t>"operacion":{"detalle":{"importe":0.001}}</t>
   </si>
   <si>
-    <t>"operacion":{"datos_generador":{"ubicacion":{"precision":1234567890123}}}}</t>
-  </si>
-  <si>
     <t>Devolución Total - ORI_ID_TRX - Caso OK</t>
   </si>
   <si>
@@ -607,12 +574,6 @@
     <t>debindebin4*</t>
   </si>
   <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7168","descripcion":"EL CUIT ADMINISTRADOR NO PERTENECE A LA RED INFORMADA)"}}}</t>
-  </si>
-  <si>
-    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7168","descripcion":"CUIT ADMINISTRADOR MAL FORMULADO)"}}}</t>
-  </si>
-  <si>
     <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Vacio</t>
   </si>
   <si>
@@ -622,18 +583,6 @@
     <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Invalido</t>
   </si>
   <si>
-    <t>"operacion":{"administrador":{"cuit":""},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"administrador":{"cuit":"2000000055"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"administrador":{"cuit":"20000000558"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"administrador":{"cuit":"20000000559"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}</t>
-  </si>
-  <si>
     <t>Nuevo circuito: Cambios /QRDebin - Nuevo campo CUIT Administrador - Cuit Valido</t>
   </si>
   <si>
@@ -899,19 +848,187 @@
   </si>
   <si>
     <t>"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}|"banco":"902"|"banco":"902"|"banco":"016","operacion_original":{"detalle":{"importe":1000},"vendedor":{"cuit":"20374372689","cbu":"0000084000000000000024"}}</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;aviso*</t>
+  </si>
+  <si>
+    <t>COELSA-COELSA - DEBINQR: Mejoras request avisos - /QRIntencionPago - Comprador CBU</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"administrador":{"cuit":""},"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0440000400000000000833","alias":""},"cuit":"20000000834"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"PSPQRCCHP","id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
+  </si>
+  <si>
+    <t>COELSA-COELSA - DEBINQR: Mejoras request avisos - /QRReverso - Caso error /QrIntencionPago - Comprador CBU</t>
+  </si>
+  <si>
+    <t>COELSA-COELSA - DEBINQR: Mejoras request avisos - /QRIntencionPago - Comprador CVU</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002020","cbu":"0000249500000000000000"},"comprador":{"cuenta":{"cbu":"0440000400000000000833","alias":""},"cuit":"20000000834"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7170","descripcion": "ERROR COMUNICACION CON ADQUIRIENTE"}}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002004","cbu":"0000247100000000000000","banco":"000","sucursal":"0247"},"comprador":{"cuenta":{"cbu":"0000247100000000000017","alias":""},"cuit":"20000002004"},"detalle":{"importe":1000,"id_billetera":247}}}</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit PRISMA - QR Raw COELSA</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": {"cbu": "","alias": "null"},"cuit": "27375575847"}},"sql":"off"</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7164","descripcion": "DATOS INVALIDOS RED (INTEROPERABLE)"}}}</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit LINK - QR Raw COELSA</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit COELSA- QR Raw PRISMA</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit COELSA- QR Raw LINK</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"2000000055"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000558"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":""},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000559"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000559"},"detalle":{"importe":1000,"qr":"00020101021143520016com.mercadolibre0128https://mpago.la/pos/242971350150011306858497515204970053030325802AR5917DIA ARGENTINA S A6015CAPITAL FEDERAL6304B7A8","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000087"},"detalle":{"importe":1000,"qr":"00020101021143520016com.mercadolibre0128https://mpago.la/pos/242971350150011306858497515204970053030325802AR5917DIA ARGENTINA S A6015CAPITAL FEDERAL6304B7A8","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20123857829"},"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20123857829"},"detalle":{"importe":1000,"qr":"00020101021143660014ar.com.redlink0144http://172.16.202.40:8080/billetera-expuesta501400103362974229520497005303ARS5406123.455802AR5904Test6015Ciudad Autonoma6104116062100706AR875480101481CHI0016304B775","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":""},"detalle":{"importe":1000,"qr":"00020101021143520016com.mercadolibre0128https://mpago.la/pos/242971350150011306858497515204970053030325802AR5917DIA ARGENTINA S A6015CAPITAL FEDERAL6304B7A8","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit VACIO - QR Raw COELSA</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit VACIO- QR Raw LINK</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit LINK - QR Raw LINK</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20000000087"},"detalle":{"importe":1000,"qr":"00020101021143660014ar.com.redlink0144http://172.16.202.40:8080/billetera-expuesta501400103362974229520497005303ARS5406123.455802AR5904Test6015Ciudad Autonoma6104116062100706AR875480101481CHI0016304B775","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":""},"detalle":{"importe":1000,"qr":"00020101021143660014ar.com.redlink0144http://172.16.202.40:8080/billetera-expuesta501400103362974229520497005303ARS5406123.455802AR5904Test6015Ciudad Autonoma6104116062100706AR875480101481CHI0016304B775","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>QRDebin: Cambio validación CUIT Administrador - Cuit COELSA - QR Raw COELSA</t>
+  </si>
+  <si>
+    <t>"operacion":{"administrador":{"cuit":"20123857829"},"detalle":{"importe":1000,"qr":"00020101021143520016com.mercadolibre0128https://mpago.la/pos/242971350150011306858497515204970053030325802AR5917DIA ARGENTINA S A6015CAPITAL FEDERAL6304B7A8","id_billetera":210}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{ "imsi":"123456789012342365235864275118888"}},"sql":"off"</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{"imei":"123456789012342365235864275118888"}},"sql":"off"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "id_billetera": 3}},"sql":"off"</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7199","descripcion": "ERROR GENERAL"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "id_comprobante": "56456456456456456456456456456"}},"sql":"off"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "id_usuario":"GHJGHJGHJ"}},"sql":"off"</t>
+  </si>
+  <si>
+    <t>qrdebininteroperable*</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"PSPQRCCHP","id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{ "id_billetera":17}},"sql":"off"</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7168","descripcion":"EL CUIT ADMINISTRADOR NO PERTENECE A LA RED INFORMADA"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7167","descripcion":"CUIT ADMINISTRADOR MAL FORMULADO"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{"ubicacion":{"precision":1234567890123}},"sql":"off"</t>
+  </si>
+  <si>
+    <t>Debin QR - CONCEPTO PCT</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"PCT","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>Debin QR - CONCEPTO CCT</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"CCT","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"concepto":"ECT","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>Debin QR - CONCEPTO ECT</t>
+  </si>
+  <si>
+    <t>NO COINCIDEN LOS BANCOS</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": {"cbu": "0000233400000000000017","alias": ""},"cuit": "20000001024"}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"comprador": {"cuenta": {"cbu": "0440000400000000000833","alias": ""},"cuit": "20000000834"}}</t>
+  </si>
+  <si>
+    <t>CVU COMPRADOR NO HABILITADO</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7155","descripcion": "CVU COMPRADOR NO HABILITADO"}}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","sucursal":"0210"},"comprador":{"cuenta":{"cbu":"0440051640000127235642","alias":""},"cuit":"20269726718"},"detalle":{"importe":130}}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -946,7 +1063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -983,11 +1100,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1274,19 +1411,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
     <col min="4" max="4" width="82.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.42578125" customWidth="1"/>
+    <col min="5" max="5" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,21 +1443,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>53766</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>104</v>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1365,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -1382,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
@@ -1399,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -1416,7 +1553,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1433,13 +1570,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1450,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1467,29 +1604,29 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>53808</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1518,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>15</v>
@@ -1535,13 +1672,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1552,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
@@ -1569,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
@@ -1586,7 +1723,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>29</v>
@@ -1597,13 +1734,13 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>53816</v>
+        <v>53815</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>317</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -1614,545 +1751,815 @@
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>53817</v>
+        <v>53816</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>71</v>
+      <c r="C20" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>53818</v>
+        <v>53817</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>82</v>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>53818</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>53819</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>53820</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
+      <c r="E23" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>53821</v>
+        <v>53820</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>53822</v>
+        <v>53821</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>53823</v>
+        <v>53822</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>53824</v>
+        <v>53823</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>53825</v>
+        <v>53824</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>53826</v>
+        <v>53825</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
         <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>53827</v>
+        <v>53826</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>53828</v>
+        <v>53827</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>53829</v>
+        <v>53828</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>55</v>
+        <v>301</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>53830</v>
+        <v>53829</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>53831</v>
+        <v>53830</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>90</v>
+      <c r="C34" t="s">
+        <v>303</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>53832</v>
+        <v>53831</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>53833</v>
+        <v>53832</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
-        <v>85</v>
+      <c r="C36" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>53834</v>
+        <v>53833</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>53835</v>
+        <v>53834</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>53836</v>
+        <v>53835</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>53837</v>
+        <v>53836</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>107</v>
+      <c r="C40" t="s">
+        <v>306</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>108</v>
+        <v>301</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>53840</v>
+        <v>53837</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>53842</v>
+        <v>53840</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>59833</v>
+        <v>53842</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>59841</v>
+        <v>59833</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>115</v>
+      <c r="C44" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E44" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>59841</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>62080</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>60688</v>
-      </c>
       <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E46" t="s">
-        <v>150</v>
+        <v>5</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>60688</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>60780</v>
       </c>
-      <c r="B47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>59692</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="B49" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
         <v>59693</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="B50" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
         <v>59695</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="B51" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
         <v>59696</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" t="s">
-        <v>196</v>
+      <c r="B52" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>60874</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>60875</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>60876</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>60879</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>60880</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>60882</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>60946</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>60947</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>62909</v>
+      </c>
+      <c r="B61" t="s">
+        <v>268</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>62912</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62914</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E63" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>53848</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>53849</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>53850</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>53838</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E46:E48 E51">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="E47:E49 E52:E61">
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2163,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,16 +2605,16 @@
         <v>60532</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2215,16 +2622,16 @@
         <v>60902</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2232,16 +2639,16 @@
         <v>60903</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2249,16 +2656,16 @@
         <v>60904</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2266,16 +2673,16 @@
         <v>60905</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2283,16 +2690,16 @@
         <v>60906</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2300,16 +2707,16 @@
         <v>60908</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2317,16 +2724,16 @@
         <v>60909</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2334,16 +2741,16 @@
         <v>60910</v>
       </c>
       <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2351,14 +2758,14 @@
         <v>59603</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2366,14 +2773,14 @@
         <v>59604</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2381,16 +2788,16 @@
         <v>60256</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2398,16 +2805,16 @@
         <v>60040</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2415,16 +2822,16 @@
         <v>60268</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2432,16 +2839,16 @@
         <v>60271</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2449,16 +2856,16 @@
         <v>60274</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2466,16 +2873,16 @@
         <v>60347</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2483,16 +2890,16 @@
         <v>60349</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2540,16 +2947,16 @@
         <v>59007</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2557,16 +2964,16 @@
         <v>59006</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2574,16 +2981,16 @@
         <v>59305</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2631,13 +3038,13 @@
         <v>61353</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2645,14 +3052,14 @@
         <v>60848</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="5" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2660,13 +3067,13 @@
         <v>59930</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2674,16 +3081,16 @@
         <v>59953</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2691,16 +3098,16 @@
         <v>59956</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2708,16 +3115,16 @@
         <v>59957</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2725,16 +3132,16 @@
         <v>59986</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2742,16 +3149,16 @@
         <v>59970</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2759,16 +3166,16 @@
         <v>59971</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2776,16 +3183,16 @@
         <v>59984</v>
       </c>
       <c r="B11" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2793,16 +3200,16 @@
         <v>59987</v>
       </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2810,16 +3217,16 @@
         <v>60386</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,16 +3277,16 @@
         <v>59844</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2887,13 +3294,13 @@
         <v>59950</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2901,16 +3308,16 @@
         <v>59991</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2918,16 +3325,16 @@
         <v>59993</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2935,16 +3342,16 @@
         <v>59994</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2952,16 +3359,16 @@
         <v>59997</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2969,16 +3376,16 @@
         <v>59998</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2986,16 +3393,16 @@
         <v>59999</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3003,16 +3410,16 @@
         <v>60002</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3020,16 +3427,16 @@
         <v>60003</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3037,14 +3444,14 @@
         <v>60246</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3057,7 +3464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD268B07-DCAB-4CB2-B86B-FE38BE218C16}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3092,14 +3499,14 @@
         <v>62551</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="5" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3107,13 +3514,13 @@
         <v>62851</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,13 +3528,13 @@
         <v>62852</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3135,16 +3542,16 @@
         <v>62854</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3152,13 +3559,13 @@
         <v>59716</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3166,13 +3573,13 @@
         <v>59718</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3180,16 +3587,16 @@
         <v>59720</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3197,13 +3604,13 @@
         <v>53394</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3211,13 +3618,13 @@
         <v>53395</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3225,13 +3632,13 @@
         <v>59542</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3239,13 +3646,13 @@
         <v>59545</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3253,16 +3660,16 @@
         <v>59551</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3270,19 +3677,19 @@
         <v>60684</v>
       </c>
       <c r="B14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" t="s">
         <v>186</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE8DA26-1DA6-4172-B1CD-B09FD39A0463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7315FC14-CC0E-4A41-91C8-CD5D0721BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="332">
   <si>
     <t>Parametros</t>
   </si>
@@ -871,9 +871,6 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7170","descripcion": "ERROR COMUNICACION CON ADQUIRIENTE"}}}</t>
   </si>
   <si>
-    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002004","cbu":"0000247100000000000000","banco":"000","sucursal":"0247"},"comprador":{"cuenta":{"cbu":"0000247100000000000017","alias":""},"cuit":"20000002004"},"detalle":{"importe":1000,"id_billetera":247}}}</t>
-  </si>
-  <si>
     <t>QRDebin: Cambio validación CUIT Administrador - Cuit PRISMA - QR Raw COELSA</t>
   </si>
   <si>
@@ -1010,6 +1007,39 @@
   </si>
   <si>
     <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","sucursal":"0210"},"comprador":{"cuenta":{"cbu":"0440051640000127235642","alias":""},"cuit":"20269726718"},"detalle":{"importe":130}}}</t>
+  </si>
+  <si>
+    <t>Flujo normal Debin QR</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":233}}}</t>
+  </si>
+  <si>
+    <t>Modificación mensaje AvisoDebinPendiente</t>
+  </si>
+  <si>
+    <t>POST /apiDebinV1/QR/QRDebin - 7172	FALLA VALIDACION CONTRA ADQUIRIENTE (Coelsa-Coelsa)</t>
+  </si>
+  <si>
+    <t>POST /apiDebinV1/QR/QRDebin - 7171	ADQUIRIENTE DENIEGA OPERACION (Coelsa-Coelsa)</t>
+  </si>
+  <si>
+    <t>POST [epBilletera]/QROperacionFinalizada - 5710 ADQUIRIENTE DENIEGA OPERACION (Coelsa-Coelsa)</t>
+  </si>
+  <si>
+    <t>POST [epBilletera]/QROperacionFinalizada - 5711 FALLA VALIDACION CONTRA ADQUIRIENTE (Coelsa-Coelsa)</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002004","cbu":"0000247100000000000000","banco":"000","sucursal":"0247"},"comprador":{"cuenta":{"cbu":"0440000400000000001157","alias":""},"cuit":"20000002004"},"detalle":{"importe":1000,"id_billetera":247}}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"PSPQRCCHP","id":"debin.id","aviso":"AvisoDebinPendiente","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"PSPIP7171","id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"PSPIP7172","id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1144,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1411,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>22</v>
@@ -1740,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -1757,13 +1797,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1800,20 +1840,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>53819</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1876,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>43</v>
@@ -1893,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
@@ -1936,20 +1976,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>53827</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" t="s">
-        <v>309</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="B31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1961,10 +2001,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="E32" t="s">
         <v>52</v>
@@ -1978,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>53</v>
@@ -1995,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>53</v>
@@ -2097,10 +2137,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E40" t="s">
         <v>101</v>
@@ -2241,13 +2281,13 @@
         <v>59692</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>178</v>
@@ -2258,13 +2298,13 @@
         <v>59693</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>177</v>
@@ -2275,10 +2315,10 @@
         <v>59695</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>62</v>
@@ -2292,10 +2332,10 @@
         <v>59696</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>62</v>
@@ -2309,16 +2349,16 @@
         <v>60874</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2326,16 +2366,16 @@
         <v>60875</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D54" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2343,16 +2383,16 @@
         <v>60876</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2360,16 +2400,16 @@
         <v>60879</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2377,16 +2417,16 @@
         <v>60880</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2394,16 +2434,16 @@
         <v>60882</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2411,16 +2451,16 @@
         <v>60946</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2428,16 +2468,16 @@
         <v>60947</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2459,11 +2499,11 @@
       <c r="A62" s="10">
         <v>62912</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" t="s">
         <v>5</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>274</v>
@@ -2480,7 +2520,7 @@
         <v>268</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E63" t="s">
         <v>272</v>
@@ -2494,13 +2534,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2511,13 +2551,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2528,13 +2568,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2545,21 +2585,114 @@
         <v>5</v>
       </c>
       <c r="C67" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>53279</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" t="s">
         <v>321</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>319</v>
+    </row>
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>53711</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="10">
+        <v>59099</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="10">
+        <v>59098</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>59606</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>59607</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E47:E49 E52:E61">
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69:A73">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3242,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA3C39-F395-444B-9CEE-CFC2FA04FF9A}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7315FC14-CC0E-4A41-91C8-CD5D0721BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4478E5E8-B30C-4BD4-94E5-86418C2AA82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="336">
   <si>
     <t>Parametros</t>
   </si>
@@ -1024,22 +1024,34 @@
     <t>POST /apiDebinV1/QR/QRDebin - 7171	ADQUIRIENTE DENIEGA OPERACION (Coelsa-Coelsa)</t>
   </si>
   <si>
-    <t>POST [epBilletera]/QROperacionFinalizada - 5710 ADQUIRIENTE DENIEGA OPERACION (Coelsa-Coelsa)</t>
-  </si>
-  <si>
-    <t>POST [epBilletera]/QROperacionFinalizada - 5711 FALLA VALIDACION CONTRA ADQUIRIENTE (Coelsa-Coelsa)</t>
-  </si>
-  <si>
     <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002004","cbu":"0000247100000000000000","banco":"000","sucursal":"0247"},"comprador":{"cuenta":{"cbu":"0440000400000000001157","alias":""},"cuit":"20000002004"},"detalle":{"importe":1000,"id_billetera":247}}}</t>
   </si>
   <si>
-    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"PSPQRCCHP","id":"debin.id","aviso":"AvisoDebinPendiente","producto":"responder"</t>
-  </si>
-  <si>
-    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"PSPIP7171","id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
-  </si>
-  <si>
-    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"PSPIP7172","id":"debin.id","aviso":"QRIntencionPago","producto":"responder"</t>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002063","cbu":"0000252500000000000000","banco":"000","sucursal":"0252"},"comprador":{"cuenta":{"cbu":"0000252500000000000017"},"cuit":"20000002063"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"DebinQRADP","id":"debin.id","aviso":"AvisoDebinPendiente","producto":"responder"</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7172","descripcion": "FALLA VALIDACION CONTRA ADQUIRIENTE"}}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002071","cbu":"0000253200000000000000","banco":"000","sucursal":"0253"},"comprador":{"cuenta":{"cbu":"0000253200000000000017"},"cuit":"20000002071"},"detalle":{"importe":1000,"id_billetera":233}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7171","descripcion": "ADQUIRIENTE DENIEGA OPERACION"}}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002098","cbu":"0000254900000000000000","banco":"000","sucursal":"0254"},"comprador":{"cuenta":{"cbu":"0000254900000000000017"},"cuit":"20000002098"},"detalle":{"importe":1000,"id_billetera":233}}}</t>
+  </si>
+  <si>
+    <t>Aviso Crédito Forzado Exitoso - LINK</t>
+  </si>
+  <si>
+    <t>"payer":{"wallet":{"name":"WALLETLINK","cuit":"20000000788","bcra_id":"05050"}}}</t>
+  </si>
+  <si>
+    <t>Modificación mensaje AvisoDeOperacionFinalizada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debin QR - NO interoperable --&gt; Comercio Inexistente </t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,7 +2515,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>274</v>
@@ -2619,69 +2631,67 @@
         <v>268</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>62</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="D69" s="12"/>
       <c r="E69" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>59099</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>268</v>
+        <v>5</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>59098</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>268</v>
+        <v>5</v>
       </c>
       <c r="C71" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>330</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>59606</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>59607</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>327</v>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>53729</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>54645</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2702,7 @@
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A73">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3136,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F27905B-1E87-40DF-B6B4-452FD9A02DC6}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,7 +3373,21 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
+      <c r="A14">
+        <v>54658</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3375,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA3C39-F395-444B-9CEE-CFC2FA04FF9A}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4478E5E8-B30C-4BD4-94E5-86418C2AA82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6EC29-5059-41A6-92D2-35FB45227701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">GETs!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PAYMENTS!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">REFUNDS!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">REFUNDS!$A$1:$E$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="336">
   <si>
     <t>Parametros</t>
   </si>
@@ -784,12 +784,6 @@
     <t>"operacion":{"detalle":{"importe":1000}}}|"operacion":{"comprador":{"cuit":"23000009989","cuenta":{"cbu":"9985340400000000000529"}},"detalle":{"ori_terminal":"","ori_adicional":"","moneda":"032","importe":1000}}}|"operacion_original":{"detalle":{"importe":1}}}|"operacion_original":{"detalle":{"importe":1}},"objeto":{"ori_trx_id":"nuevo"}|"operacion_original":{"detalle":{"importe":1}},"objeto":{"ori_trx_id":"nuevo"}</t>
   </si>
   <si>
-    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation-&gt;Refund-&gt;Aviso*</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"id":"debin.id","aviso":"QROperacionFinalizada","producto":"responder"</t>
-  </si>
-  <si>
     <t>Coelsa Billetera - Refund - Aviso QROperaciónFinalizada IDHASH de la operación original - OK</t>
   </si>
   <si>
@@ -1052,6 +1046,12 @@
   </si>
   <si>
     <t xml:space="preserve">Debin QR - NO interoperable --&gt; Comercio Inexistente </t>
+  </si>
+  <si>
+    <t>PaymentValidationbcra*</t>
+  </si>
+  <si>
+    <t>PaymentValidationbcra*-&gt;Paymentbcra*</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+    <sheetView topLeftCell="B66" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -1503,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>95</v>
@@ -1673,7 +1673,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>22</v>
@@ -1792,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -1809,13 +1809,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>43</v>
@@ -1945,7 +1945,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
@@ -1996,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>50</v>
@@ -2013,10 +2013,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E32" t="s">
         <v>52</v>
@@ -2030,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>53</v>
@@ -2047,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>53</v>
@@ -2149,10 +2149,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E40" t="s">
         <v>101</v>
@@ -2293,13 +2293,13 @@
         <v>59692</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>178</v>
@@ -2310,13 +2310,13 @@
         <v>59693</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>177</v>
@@ -2327,10 +2327,10 @@
         <v>59695</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>62</v>
@@ -2344,10 +2344,10 @@
         <v>59696</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>62</v>
@@ -2361,16 +2361,16 @@
         <v>60874</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2378,16 +2378,16 @@
         <v>60875</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2395,16 +2395,16 @@
         <v>60876</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2412,16 +2412,16 @@
         <v>60879</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2429,16 +2429,16 @@
         <v>60880</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2446,16 +2446,16 @@
         <v>60882</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2463,16 +2463,16 @@
         <v>60946</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2480,16 +2480,16 @@
         <v>60947</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2497,14 +2497,14 @@
         <v>62909</v>
       </c>
       <c r="B61" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2515,13 +2515,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2529,13 +2529,13 @@
         <v>62914</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2546,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2563,13 +2563,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2580,13 +2580,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2597,13 +2597,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2614,13 +2614,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2628,14 +2628,14 @@
         <v>53711</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2646,13 +2646,13 @@
         <v>5</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2663,13 +2663,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2931,16 +2931,16 @@
         <v>60256</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2948,10 +2948,10 @@
         <v>60040</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>109</v>
@@ -2965,16 +2965,16 @@
         <v>60268</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2982,16 +2982,16 @@
         <v>60271</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2999,16 +2999,16 @@
         <v>60274</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3016,16 +3016,16 @@
         <v>60347</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3033,16 +3033,16 @@
         <v>60349</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3147,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3219,71 +3219,71 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>59953</v>
       </c>
-      <c r="B5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>59956</v>
       </c>
-      <c r="B6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>59957</v>
       </c>
-      <c r="B7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>59986</v>
       </c>
-      <c r="B8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
         <v>59970</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
         <v>218</v>
@@ -3380,13 +3380,13 @@
         <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -3399,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA3C39-F395-444B-9CEE-CFC2FA04FF9A}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3567,7 +3567,7 @@
         <v>60002</v>
       </c>
       <c r="B10" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>233</v>
@@ -3587,7 +3587,7 @@
         <v>237</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>211</v>
@@ -3596,19 +3596,21 @@
         <v>242</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60246</v>
       </c>
       <c r="B12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F6EC29-5059-41A6-92D2-35FB45227701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C286B61-A807-42FC-B96B-AE3566621430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">GETs!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PAYMENTS!$A$1:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QR!$A$1:$E$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">REFUNDS!$A$1:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">REFUNDS!$A$1:$E$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="355">
   <si>
     <t>Parametros</t>
   </si>
@@ -619,9 +619,6 @@
     <t>"operacion_original":{"detalle":{"importe":1},"qr_id_trx":"Test%20Auto%2014594309"},"objeto":{"ori_trx_id":" "},"sql":"off"</t>
   </si>
   <si>
-    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation-&gt;Refund</t>
-  </si>
-  <si>
     <t>{"StatusCode":201,"Mensaje":{"transaction": {"code":"APPROVED","description":"REFUND REALIZADO CORRECTAMENTE"}}}</t>
   </si>
   <si>
@@ -649,9 +646,6 @@
     <t>IdBilletera BCRA - Coelsa Billetera Reverso - Refund/validations - OK</t>
   </si>
   <si>
-    <t>RefundValidation</t>
-  </si>
-  <si>
     <t>IdBilletera BCRA - Coelsa Aceptador - Refunds - OK</t>
   </si>
   <si>
@@ -724,48 +718,27 @@
     <t>IdBilletera BCRA - Coelsa Aceptador  - Circuito Completo - Distinto bcra_id enviado en payments/validations y payments</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}</t>
-  </si>
-  <si>
     <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation*</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"0005"}}}</t>
-  </si>
-  <si>
     <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - menor a 5 caracteres</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"000505"}}}</t>
-  </si>
-  <si>
     <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - mayor a 5 caracteres</t>
   </si>
   <si>
     <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - alfanumérico</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"a0b06"}}}</t>
-  </si>
-  <si>
     <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - vacío/null</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":" "}}}</t>
-  </si>
-  <si>
     <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - menor a 5 caracteres</t>
   </si>
   <si>
     <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidation*-&gt;Refund*</t>
   </si>
   <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"05050"}}}|"payer":{"wallet":{"bcra_id":"0505"}}}</t>
-  </si>
-  <si>
-    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":4}}}|"operacion":{"detalle":{"importe":1000}}}|"payer":{"wallet":{"bcra_id":"05050"}}}|"payer":{"wallet":{"bcra_id":"050505"}}}</t>
-  </si>
-  <si>
     <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - mayor a 5 caracteres</t>
   </si>
   <si>
@@ -964,9 +937,6 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo":"7167","descripcion":"CUIT ADMINISTRADOR MAL FORMULADO"}}}</t>
   </si>
   <si>
-    <t>"operacion":{"datos_generador":{"ubicacion":{"precision":1234567890123}},"sql":"off"</t>
-  </si>
-  <si>
     <t>Debin QR - CONCEPTO PCT</t>
   </si>
   <si>
@@ -1000,9 +970,6 @@
     <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7155","descripcion": "CVU COMPRADOR NO HABILITADO"}}}</t>
   </si>
   <si>
-    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001008","cbu":"0000210500200000010083","sucursal":"0210"},"comprador":{"cuenta":{"cbu":"0440051640000127235642","alias":""},"cuit":"20269726718"},"detalle":{"importe":130}}}</t>
-  </si>
-  <si>
     <t>Flujo normal Debin QR</t>
   </si>
   <si>
@@ -1052,13 +1019,103 @@
   </si>
   <si>
     <t>PaymentValidationbcra*-&gt;Paymentbcra*</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000191100000000000017","alias":""},"cuit":"27237277959"},"detalle":{"importe":130}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"datos_generador":{"ubicacion":{"precision":1234567890123}}},"sql":"off"</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - null - OK</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds - bcra_id - Sin bcra_id - OK</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":100,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":100}}}|"banco":"902"|"banco":"902"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"0005"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"05050"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":" "}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"05050"}}}|"banco":"902","payer":{"wallet":{"bcra_id":"0505"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"05050"}}}|"banco":"902","payer":{"wallet":{"bcra_id":"a0b06"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"05050"}}}|"banco":"902","payer":{"wallet":{"bcra_id":"050505"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"05050"}}}|"banco":"902","payer":{"wallet":{"bcra_id":" "}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902"|"banco":"902"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"05050"}}}|"banco":"902","payer":{"wallet":{"bcra_id":"null"}}}</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidationbcra*-&gt;Refundbcra*</t>
+  </si>
+  <si>
+    <t>transaction_reference_id - Coelsa Billetera - Refunds/Validations y Refunds - transaction_reference_id = null - OK</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902"|"banco":"902","original_transaction":{"transaction_reference_id":"null"}}</t>
+  </si>
+  <si>
+    <t>transaction_reference_id - Coelsa Billetera - Refunds/Validations y Refunds - transaction_reference_id = vacio</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902"|"banco":"902","original_transaction":{"transaction_reference_id":" "}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - Sin bcra_id - OK</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*-&gt;RefundValidationbcra*</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"null"}}}</t>
+  </si>
+  <si>
+    <t>IdBilletera BCRA - Coelsa Billetera - Refunds/Validations - bcra_id - null - OK</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":100,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":100}}}|"banco":"902"</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","original_transaction":{"transaction_reference_id":"null"}}</t>
+  </si>
+  <si>
+    <t>transaction_reference_id - Coelsa Billetera - Refunds/Validations - transaction_reference_id = null - OK</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"000505"}}}</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","payer":{"wallet":{"bcra_id":"a0b06"}}}</t>
+  </si>
+  <si>
+    <t>transaction_reference_id - Coelsa Billetera - Refunds/Validations - transaction_reference_id = Vacio - OK</t>
+  </si>
+  <si>
+    <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","original_transaction":{"transaction_reference_id":" "}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,6 +1128,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1105,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1149,8 +1212,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B66" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>95</v>
@@ -1673,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>22</v>
@@ -1792,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>31</v>
@@ -1809,13 +1876,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1928,7 +1995,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>43</v>
@@ -1945,7 +2012,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>45</v>
@@ -1988,20 +2055,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="31" spans="1:5" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>53827</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2013,10 +2080,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E32" t="s">
         <v>52</v>
@@ -2030,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>53</v>
@@ -2047,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>53</v>
@@ -2149,10 +2216,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E40" t="s">
         <v>101</v>
@@ -2293,13 +2360,13 @@
         <v>59692</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>178</v>
@@ -2310,13 +2377,13 @@
         <v>59693</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>177</v>
@@ -2327,10 +2394,10 @@
         <v>59695</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>62</v>
@@ -2344,10 +2411,10 @@
         <v>59696</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>62</v>
@@ -2361,16 +2428,16 @@
         <v>60874</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2378,16 +2445,16 @@
         <v>60875</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2395,16 +2462,16 @@
         <v>60876</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2412,16 +2479,16 @@
         <v>60879</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2429,16 +2496,16 @@
         <v>60880</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2446,16 +2513,16 @@
         <v>60882</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2463,16 +2530,16 @@
         <v>60946</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2480,16 +2547,16 @@
         <v>60947</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2497,14 +2564,14 @@
         <v>62909</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2515,13 +2582,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2529,13 +2596,13 @@
         <v>62914</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="E63" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2546,13 +2613,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2563,13 +2630,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2580,30 +2647,30 @@
         <v>5</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E66" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
         <v>53838</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>316</v>
+      <c r="B67" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2614,13 +2681,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E68" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2628,14 +2695,14 @@
         <v>53711</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="10" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2646,13 +2713,13 @@
         <v>5</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2663,13 +2730,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,7 +2747,7 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2691,7 +2758,7 @@
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2713,8 +2780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,7 +2903,7 @@
         <v>135</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>109</v>
@@ -2931,16 +2998,16 @@
         <v>60256</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2948,16 +3015,16 @@
         <v>60040</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2965,16 +3032,16 @@
         <v>60268</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2982,16 +3049,16 @@
         <v>60271</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2999,16 +3066,16 @@
         <v>60274</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>109</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3016,16 +3083,16 @@
         <v>60347</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3033,16 +3100,16 @@
         <v>60349</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>124</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3093,10 +3160,10 @@
         <v>112</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>114</v>
@@ -3110,10 +3177,10 @@
         <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>113</v>
@@ -3127,7 +3194,7 @@
         <v>112</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>111</v>
@@ -3210,13 +3277,13 @@
         <v>59930</v>
       </c>
       <c r="B4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3224,16 +3291,16 @@
         <v>59953</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3241,16 +3308,16 @@
         <v>59956</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3258,16 +3325,16 @@
         <v>59957</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3275,16 +3342,16 @@
         <v>59986</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="E8" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3292,16 +3359,16 @@
         <v>59970</v>
       </c>
       <c r="B9" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3309,16 +3376,16 @@
         <v>59971</v>
       </c>
       <c r="B10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3326,16 +3393,16 @@
         <v>59984</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3343,16 +3410,16 @@
         <v>59987</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3360,16 +3427,16 @@
         <v>60386</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3377,16 +3444,16 @@
         <v>54658</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3397,10 +3464,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA3C39-F395-444B-9CEE-CFC2FA04FF9A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,35 +3496,38 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>59844</v>
       </c>
       <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>59950</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>224</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3465,16 +3535,16 @@
         <v>59991</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>228</v>
+        <v>330</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3482,16 +3552,16 @@
         <v>59993</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3499,16 +3569,16 @@
         <v>59994</v>
       </c>
       <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3516,16 +3586,16 @@
         <v>59997</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3533,16 +3603,16 @@
         <v>59998</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>238</v>
+        <v>333</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3550,16 +3620,16 @@
         <v>59999</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3567,16 +3637,16 @@
         <v>60002</v>
       </c>
       <c r="B10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>233</v>
+        <v>334</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3584,33 +3654,169 @@
         <v>60003</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>239</v>
+        <v>336</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>60246</v>
       </c>
       <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>246</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>60717</v>
+      </c>
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>60716</v>
+      </c>
+      <c r="B14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>60787</v>
+      </c>
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>60838</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60714</v>
+      </c>
+      <c r="B17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60715</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60786</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60837</v>
+      </c>
+      <c r="B20" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C286B61-A807-42FC-B96B-AE3566621430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBBC2DA-F3D9-4B15-B57C-D1AF01C9751C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QR" sheetId="7" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="368">
   <si>
     <t>Parametros</t>
   </si>
@@ -1012,9 +1012,6 @@
     <t>Modificación mensaje AvisoDeOperacionFinalizada</t>
   </si>
   <si>
-    <t xml:space="preserve">Debin QR - NO interoperable --&gt; Comercio Inexistente </t>
-  </si>
-  <si>
     <t>PaymentValidationbcra*</t>
   </si>
   <si>
@@ -1109,6 +1106,48 @@
   </si>
   <si>
     <t>"operacion":{"detalle":{"importe":1000,"qr":"00020101021143160012com.todopago44110007com.agr48260012com.todopago010627571950150011309598932565204970053030325802AR5922Jordan Empresa Preprod6013VILLA URQUIZA6304d9da","id_billetera":210}}}|"operacion":{"detalle":{"importe":1000}}}|"banco":"902","original_transaction":{"transaction_reference_id":" "}}</t>
+  </si>
+  <si>
+    <t>PSP SIN CUIT CONFIGURADO</t>
+  </si>
+  <si>
+    <t>BILLETERA SIN CUIT CONFIGURADO</t>
+  </si>
+  <si>
+    <t>BILLETERA SIN CBU CONFIGURADO</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":240}}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000001024","cbu":"0000233400000000000000","banco":"000","sucursal":"0233"},"comprador":{"cuenta":{"cbu":"0000233400000000000017"},"cuit":"20000001024"},"detalle":{"importe":1000,"id_billetera":249}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7157","descripcion": "BILLETERA SIN CUIT CONFIGURADO"}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7158","descripcion": "BILLETERA SIN CBU CONFIGURADO"}}}</t>
+  </si>
+  <si>
+    <t>Insertar algún dato en DEP_PRIMARIO</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002055","cbu":"0000251800000000000000","banco":"000","sucursal":"0251"},"comprador":{"cuenta":{"cbu":"0000251800000000000017"},"cuit":"20000002055"},"detalle":{"importe":1000,"id_billetera":251}}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comercio Inexistente </t>
+  </si>
+  <si>
+    <t>Comercio Inactivo</t>
+  </si>
+  <si>
+    <t>Tramo Gratuito</t>
+  </si>
+  <si>
+    <t>Comisión cero</t>
+  </si>
+  <si>
+    <t>Comision en Null</t>
   </si>
 </sst>
 </file>
@@ -1530,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="D64" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2102,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>50</v>
@@ -2664,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>307</v>
@@ -2739,27 +2778,137 @@
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
+        <v>53758</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="E72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>53759</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E73" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
+        <v>53767</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="10">
         <v>53729</v>
       </c>
-      <c r="B72" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="B75" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="10">
+        <v>53725</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="10">
         <v>54645</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>322</v>
-      </c>
+      <c r="B77" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="10">
+        <v>54646</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="10">
+        <v>54647</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="10">
+        <v>54648</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>54649</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E47:E49 E52:E61">
@@ -2768,8 +2917,8 @@
   <conditionalFormatting sqref="E63">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A73">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  <conditionalFormatting sqref="A69:A82">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3291,7 +3440,7 @@
         <v>59953</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>202</v>
@@ -3308,7 +3457,7 @@
         <v>59956</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>203</v>
@@ -3325,7 +3474,7 @@
         <v>59957</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>205</v>
@@ -3342,7 +3491,7 @@
         <v>59986</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>207</v>
@@ -3359,7 +3508,7 @@
         <v>59970</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
         <v>216</v>
@@ -3466,7 +3615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFA3C39-F395-444B-9CEE-CFC2FA04FF9A}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -3504,7 +3653,7 @@
         <v>230</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>191</v>
@@ -3521,7 +3670,7 @@
         <v>224</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>195</v>
@@ -3538,7 +3687,7 @@
         <v>224</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>209</v>
@@ -3555,7 +3704,7 @@
         <v>224</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>209</v>
@@ -3572,7 +3721,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>211</v>
@@ -3589,7 +3738,7 @@
         <v>224</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>209</v>
@@ -3606,7 +3755,7 @@
         <v>230</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>209</v>
@@ -3623,7 +3772,7 @@
         <v>230</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>209</v>
@@ -3640,7 +3789,7 @@
         <v>230</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>211</v>
@@ -3657,7 +3806,7 @@
         <v>230</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>209</v>
@@ -3674,7 +3823,7 @@
         <v>230</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>191</v>
@@ -3691,13 +3840,13 @@
         <v>230</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3705,16 +3854,16 @@
         <v>60716</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3725,13 +3874,13 @@
         <v>230</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3742,13 +3891,13 @@
         <v>230</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>191</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3756,16 +3905,16 @@
         <v>60714</v>
       </c>
       <c r="B17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3776,13 +3925,13 @@
         <v>224</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>209</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3793,13 +3942,13 @@
         <v>224</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3810,13 +3959,13 @@
         <v>224</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
+++ b/Ambiente/Debin - QR - Escenarios y Casos de Pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Katalon Studio\Inazuma 3 - Debin\Ambiente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBBC2DA-F3D9-4B15-B57C-D1AF01C9751C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612E9860-14E5-477D-9B0C-5C43A5C7575E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="373">
   <si>
     <t>Parametros</t>
   </si>
@@ -1141,13 +1141,28 @@
     <t>Comercio Inactivo</t>
   </si>
   <si>
-    <t>Tramo Gratuito</t>
-  </si>
-  <si>
-    <t>Comisión cero</t>
-  </si>
-  <si>
-    <t>Comision en Null</t>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002128","cbu":"0000256300000000000000","banco":"000","sucursal":"0256"},"comprador":{"cuenta":{"cbu":"0000256300000000000017"},"cuit":"20000002128"},"detalle":{"importe":1000,"id_billetera":233}}}|"endpoint":"DebinQRURLP2","id":"debin.id","aviso":"AvisoDebinPendiente","producto":"responder"</t>
+  </si>
+  <si>
+    <t>QRDebin*-&gt;ConfirmaDebito*</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje": {"codigo": "87","descripcion": "EL DEBIN SE ENCUENTRA EN UN ESTADO QUE NO SE PUEDE MODIFICAR"}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002136","cbu":"0000257000000000000000","banco":"000","sucursal":"0257"},"comprador":{"cuenta":{"cbu":"0000257000000000000017"},"cuit":"20000002136"},"detalle":{"importe":1000,"id_billetera":233}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "7156","descripcion": "COMERCIO INEXISTENTE"}}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002101","cbu":"0000255600000000000000","banco":"000","sucursal":"0255"},"comprador":{"cuenta":{"cbu":"0000255600000000000017"},"cuit":"20000002101"},"detalle":{"importe":1000,"id_billetera":233}}}|"banco":"044","operacion":{"comprador":{"cuit":"20000002101","cuenta":{"cbu":"0440000400000000001331"}},"detalle":{"ori_terminal":"null","ori_adicional":"null","importe":1000}}}</t>
+  </si>
+  <si>
+    <t>"banco":"044","operacion":{"vendedor":{"cuit":"20000002144","cbu":"0000258700000000000000","banco":"000","sucursal":"0258"},"comprador":{"cuenta":{"cbu":"0000258700000000000017"},"cuit":"20000002144"},"detalle":{"importe":1000,"id_billetera":233}}}</t>
+  </si>
+  <si>
+    <t>{"StatusCode":200,"Mensaje":{"respuesta": {"codigo": "0562","descripcion": "COMERCIO INACTIVO"}}}</t>
   </si>
 </sst>
 </file>
@@ -1569,10 +1584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63218BCB-F1F0-4D18-A551-3DB8181D382F}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,86 +2844,71 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>53729</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>5</v>
+        <v>366</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="E75" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>53725</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>5</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="12"/>
       <c r="E76" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>54645</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="C77" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>369</v>
+      </c>
       <c r="E77" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>54646</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="C78" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>372</v>
+      </c>
       <c r="E78" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="10">
-        <v>54647</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
-        <v>54648</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="10">
-        <v>54649</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E47:E49 E52:E61">
@@ -2917,8 +2917,8 @@
   <conditionalFormatting sqref="E63">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A82">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  <conditionalFormatting sqref="A69:A78">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2929,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F88D94-F9F2-4FF5-8669-E80BF5785B88}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
